--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -1,55 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" fullCalcOnLoad="1" calcCompleted="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
-      <strike val="0"/>
+      <charset val="1"/>
+      <family val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="0"/>
       <b val="1"/>
-      <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="00e2f0d9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -57,91 +83,107 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -222,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -257,7 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,3215 +474,3197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="36.419678" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="109.544678" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="35.2771" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19.995117" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="89.549561" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="28.135986" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="23.422852" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="17.567139" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="94.26269499999999" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="54.129639" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="64.841309" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="36.42" customWidth="1" style="3" min="1" max="1"/>
+    <col width="109.55" customWidth="1" style="3" min="2" max="2"/>
+    <col width="35.28" customWidth="1" style="3" min="3" max="3"/>
+    <col width="20" customWidth="1" style="3" min="4" max="4"/>
+    <col width="89.55" customWidth="1" style="3" min="5" max="5"/>
+    <col width="28.14" customWidth="1" style="3" min="6" max="6"/>
+    <col width="23.43" customWidth="1" style="3" min="7" max="7"/>
+    <col width="17.57" customWidth="1" style="3" min="8" max="8"/>
+    <col width="94.26000000000001" customWidth="1" style="3" min="9" max="9"/>
+    <col width="54.13" customWidth="1" style="3" min="10" max="10"/>
+    <col width="64.84" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="14.4" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Tipo painel:</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>MATERIAIS</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="14.4" customHeight="1" s="4">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Quantidade total de registros:</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="3" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="3" ht="14.4" customHeight="1" s="4">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Registros apresentados:</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>51 a 50</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4" ht="14.4" customHeight="1" s="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Filtros:</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição :  CANETA MARCA-TEXTO\, MATERIAL:PLÁSTICO\, TIPO PONTA:FLUORESCENTE\, COR:AMARELA </t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ano da Compra :  2020, 2021 </t>
         </is>
       </c>
-      <c r="D4" s="0" t="n"/>
-      <c r="E4" s="0" t="n"/>
-      <c r="F4" s="0" t="n"/>
-      <c r="G4" s="0" t="n"/>
-      <c r="H4" s="0" t="n"/>
-      <c r="I4" s="0" t="n"/>
-      <c r="J4" s="0" t="n"/>
-      <c r="K4" s="0" t="n"/>
-      <c r="L4" s="0" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+    </row>
+    <row r="5" ht="14.4" customHeight="1" s="4">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Identificação da Compra</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Número do Item</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Modalidade</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Código do CATMAT</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>Unidade de Fornecimento</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>Quantidade Ofertada</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>Valor Unitário</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>Fornecedor</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>Órgão</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>UASG - Unidade Gestora</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>Data da Compra</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+    <row r="6" ht="14.4" customHeight="1" s="4">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>00003/2020</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>00013</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P1</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>350</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>0,089</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
         <is>
           <t>L.H. DE SOUZA FREITAS</t>
         </is>
       </c>
-      <c r="J6" s="0" t="inlineStr">
+      <c r="J6" s="7" t="inlineStr">
         <is>
           <t>CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="K6" s="0" t="inlineStr">
+      <c r="K6" s="7" t="inlineStr">
         <is>
           <t>389260 - CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" s="7" t="inlineStr">
         <is>
           <t>15/07/2020</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+    <row r="7" ht="14.4" customHeight="1" s="4">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>00001/2021</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>00031</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>CAIXA 12,00 UN</t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>1.300</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" s="7" t="inlineStr">
         <is>
           <t>0,109</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J7" s="0" t="inlineStr">
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>ESTADO DO RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="K7" s="0" t="inlineStr">
+      <c r="K7" s="7" t="inlineStr">
         <is>
           <t>988815 - PREF.MUNICIPAL DO RIO GRANDE/RS</t>
         </is>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" s="7" t="inlineStr">
         <is>
           <t>02/06/2021</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+    <row r="8" ht="14.4" customHeight="1" s="4">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>00021/2020</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>00040</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
         <is>
           <t>1.500</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
         <is>
           <t>SOUZA E FRAGATA SERVICOS DE REFORMAS, MANUTENCAO, LIMPEZA E CONSERVACAO PREDIAL</t>
         </is>
       </c>
-      <c r="J8" s="0" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K8" s="0" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>160537 - COMANDO 16A BRIGADA DE INFANT.DE SELVA/MEX/AM</t>
         </is>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>06/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+    <row r="9" ht="14.4" customHeight="1" s="4">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>00041</t>
         </is>
       </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P2</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>4.954</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>0,61</t>
         </is>
       </c>
-      <c r="I9" s="0" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr">
         <is>
           <t>AAZ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J9" s="0" t="inlineStr">
+      <c r="J9" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K9" s="0" t="inlineStr">
+      <c r="K9" s="7" t="inlineStr">
         <is>
           <t>160186 - BASE DE ADMINISTRAçãO DO QGEX</t>
         </is>
       </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L9" s="7" t="inlineStr">
         <is>
           <t>26/02/2021</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+    <row r="10" ht="14.4" customHeight="1" s="4">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>00050/2020</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>1.500</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="I10" s="0" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
         <is>
           <t>DGW BRASIL EIRELI</t>
         </is>
       </c>
-      <c r="J10" s="0" t="inlineStr">
+      <c r="J10" s="7" t="inlineStr">
         <is>
           <t>UNIVERSIDADE FEDERAL DO PARANA</t>
         </is>
       </c>
-      <c r="K10" s="0" t="inlineStr">
+      <c r="K10" s="7" t="inlineStr">
         <is>
           <t>153079 - UNIVERSIDADE FEDERAL DO PARANA</t>
         </is>
       </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" s="7" t="inlineStr">
         <is>
           <t>16/07/2020</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+    <row r="11" ht="14.4" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>00011/2020</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>00008</t>
         </is>
       </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P3</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>PINHO COMERCIO DE PRODUTOS SANEANTES EIRELI</t>
         </is>
       </c>
-      <c r="J11" s="0" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>FUNDACAO UNIVERSIDADE DO AMAZONAS</t>
         </is>
       </c>
-      <c r="K11" s="0" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>154039 - FUNDACAO UNIVERSIDADE DO AMAZONAS/AM</t>
         </is>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>11/09/2020</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+    <row r="12" ht="14.4" customHeight="1" s="4">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>00013/2020</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>00017</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
         <is>
           <t>5.000</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>0,70</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
+      <c r="I12" s="7" t="inlineStr">
         <is>
           <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
         </is>
       </c>
-      <c r="J12" s="0" t="inlineStr">
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K12" s="0" t="inlineStr">
+      <c r="K12" s="7" t="inlineStr">
         <is>
           <t>160448 - 5 BATALHAO DE ENGENHARIA DE COMBATE</t>
         </is>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" s="7" t="inlineStr">
         <is>
           <t>30/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+    <row r="13" ht="14.4" customHeight="1" s="4">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>00005/2020</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>00054</t>
         </is>
       </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
         <is>
           <t>2.700</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr">
         <is>
           <t>0,71</t>
         </is>
       </c>
-      <c r="I13" s="0" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J13" s="0" t="inlineStr">
+      <c r="J13" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K13" s="0" t="inlineStr">
+      <c r="K13" s="7" t="inlineStr">
         <is>
           <t>160428 - 2 REGIMENTO DE CAVALARIA MECANIZADO/RS</t>
         </is>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" s="7" t="inlineStr">
         <is>
           <t>13/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+    <row r="14" ht="14.4" customHeight="1" s="4">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>00364</t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="I14" s="0" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
         </is>
       </c>
-      <c r="J14" s="0" t="inlineStr">
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K14" s="0" t="inlineStr">
+      <c r="K14" s="7" t="inlineStr">
         <is>
           <t>120669 - BASE AéREA DE SANTA CRUZ</t>
         </is>
       </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L14" s="7" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+    <row r="15" ht="14.4" customHeight="1" s="4">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>00029</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P4</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>4.000</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="I15" s="0" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
         </is>
       </c>
-      <c r="J15" s="0" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>FUNDACAO UNIVERSIDADE FED. DA GRANDE DOURADOS</t>
         </is>
       </c>
-      <c r="K15" s="0" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>154502 - FUNDAÇÃO UNIV. FEDERAL DA GRANDE DOURADOS</t>
         </is>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>31/08/2020</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+    <row r="16" ht="14.4" customHeight="1" s="4">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>00016/2019</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>00004</t>
         </is>
       </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H16" s="7" t="inlineStr">
         <is>
           <t>0,73</t>
         </is>
       </c>
-      <c r="I16" s="0" t="inlineStr">
+      <c r="I16" s="7" t="inlineStr">
         <is>
           <t>LADO C COMERCIO E IMPORTACAO HOME OFFICE EIRELI</t>
         </is>
       </c>
-      <c r="J16" s="0" t="inlineStr">
+      <c r="J16" s="7" t="inlineStr">
         <is>
           <t>ESTADO DE RONDONIA</t>
         </is>
       </c>
-      <c r="K16" s="0" t="inlineStr">
+      <c r="K16" s="7" t="inlineStr">
         <is>
           <t>926002 - DEPARTAMENTO ESTADUAL DE TRÂNSITO</t>
         </is>
       </c>
-      <c r="L16" s="0" t="inlineStr">
+      <c r="L16" s="7" t="inlineStr">
         <is>
           <t>21/08/2020</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+    <row r="17" ht="14.4" customHeight="1" s="4">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>00044/2019</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>00013</t>
         </is>
       </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="H17" s="7" t="inlineStr">
         <is>
           <t>0,74</t>
         </is>
       </c>
-      <c r="I17" s="0" t="inlineStr">
+      <c r="I17" s="7" t="inlineStr">
         <is>
           <t>BRITO E FARIAS COMERCIO DE ARTIGOS DE PAPELARIA LTDA</t>
         </is>
       </c>
-      <c r="J17" s="0" t="inlineStr">
+      <c r="J17" s="7" t="inlineStr">
         <is>
           <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
         </is>
       </c>
-      <c r="K17" s="0" t="inlineStr">
+      <c r="K17" s="7" t="inlineStr">
         <is>
           <t>155023 - HOSPITAL UNIVERSITÁRIO LAURO WANDERLEY</t>
         </is>
       </c>
-      <c r="L17" s="0" t="inlineStr">
+      <c r="L17" s="7" t="inlineStr">
         <is>
           <t>12/02/2021</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+    <row r="18" ht="14.4" customHeight="1" s="4">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>00038</t>
         </is>
       </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
         <is>
           <t>5.607</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H18" s="7" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I18" s="0" t="inlineStr">
+      <c r="I18" s="7" t="inlineStr">
         <is>
           <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
         </is>
       </c>
-      <c r="J18" s="0" t="inlineStr">
+      <c r="J18" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K18" s="0" t="inlineStr">
+      <c r="K18" s="7" t="inlineStr">
         <is>
           <t>120669 - BASE AéREA DE SANTA CRUZ</t>
         </is>
       </c>
-      <c r="L18" s="0" t="inlineStr">
+      <c r="L18" s="7" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+    <row r="19" ht="14.4" customHeight="1" s="4">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>00006/2020</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>00002</t>
         </is>
       </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H19" s="7" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I19" s="0" t="inlineStr">
+      <c r="I19" s="7" t="inlineStr">
         <is>
           <t>PRINTSUL COMERCIO ATACADISTA LTDA</t>
         </is>
       </c>
-      <c r="J19" s="0" t="inlineStr">
+      <c r="J19" s="7" t="inlineStr">
         <is>
           <t>DEPARTAMENTO DE POLICIA FEDERAL</t>
         </is>
       </c>
-      <c r="K19" s="0" t="inlineStr">
+      <c r="K19" s="7" t="inlineStr">
         <is>
           <t>200370 - SUPERINTENDENCIA REG.DEP.POLICIA FEDERAL - SC</t>
         </is>
       </c>
-      <c r="L19" s="0" t="inlineStr">
+      <c r="L19" s="7" t="inlineStr">
         <is>
           <t>11/09/2020</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+    <row r="20" ht="14.4" customHeight="1" s="4">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>00006/2020</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>00019</t>
         </is>
       </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
+      <c r="H20" s="7" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I20" s="0" t="inlineStr">
+      <c r="I20" s="7" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J20" s="0" t="inlineStr">
+      <c r="J20" s="7" t="inlineStr">
         <is>
           <t>FUNDACAO OSWALDO CRUZ</t>
         </is>
       </c>
-      <c r="K20" s="0" t="inlineStr">
+      <c r="K20" s="7" t="inlineStr">
         <is>
           <t>254422 - CENTRO DE PESQUISAS GONCALO MUNIZ - FIOCRUZ</t>
         </is>
       </c>
-      <c r="L20" s="0" t="inlineStr">
+      <c r="L20" s="7" t="inlineStr">
         <is>
           <t>13/08/2020</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+    <row r="21" ht="14.4" customHeight="1" s="4">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>00030</t>
         </is>
       </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I21" s="0" t="inlineStr">
+      <c r="I21" s="7" t="inlineStr">
         <is>
           <t>ARARIPE COMERCIO E LOCACOES LTDA</t>
         </is>
       </c>
-      <c r="J21" s="0" t="inlineStr">
+      <c r="J21" s="7" t="inlineStr">
         <is>
           <t>ESTADO DA BAHIA</t>
         </is>
       </c>
-      <c r="K21" s="0" t="inlineStr">
+      <c r="K21" s="7" t="inlineStr">
         <is>
           <t>983045 - PREFEITURA MUNICIPAL DE SOBRADINHO/BA</t>
         </is>
       </c>
-      <c r="L21" s="0" t="inlineStr">
+      <c r="L21" s="7" t="inlineStr">
         <is>
           <t>15/02/2021</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+    <row r="22" ht="14.4" customHeight="1" s="4">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>00001/2021</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>00058</t>
         </is>
       </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
+      <c r="H22" s="7" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I22" s="0" t="inlineStr">
+      <c r="I22" s="7" t="inlineStr">
         <is>
           <t>GRAFICA E EDITORA LUAR EIRELI</t>
         </is>
       </c>
-      <c r="J22" s="0" t="inlineStr">
+      <c r="J22" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K22" s="0" t="inlineStr">
+      <c r="K22" s="7" t="inlineStr">
         <is>
           <t>160004 - 59  BATALHAO DE INFANTARIA MOTORIZADO/AL</t>
         </is>
       </c>
-      <c r="L22" s="0" t="inlineStr">
+      <c r="L22" s="7" t="inlineStr">
         <is>
           <t>30/03/2021</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+    <row r="23" ht="14.4" customHeight="1" s="4">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>00060/2020</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
+      <c r="B23" s="7" t="inlineStr">
         <is>
           <t>00020</t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>Dispensa de Licitação</t>
         </is>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="D23" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="H23" s="7" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I23" s="0" t="inlineStr">
+      <c r="I23" s="7" t="inlineStr">
         <is>
           <t>BAZAR E PAPELARIA MN LTDA</t>
         </is>
       </c>
-      <c r="J23" s="0" t="inlineStr">
+      <c r="J23" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K23" s="0" t="inlineStr">
+      <c r="K23" s="7" t="inlineStr">
         <is>
           <t>160291 - CENTRO TECNOLOGICO DO EXERCITO/RJ</t>
         </is>
       </c>
-      <c r="L23" s="0" t="inlineStr">
+      <c r="L23" s="7" t="inlineStr">
         <is>
           <t>13/07/2020</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+    <row r="24" ht="14.4" customHeight="1" s="4">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
         <is>
           <t>00104</t>
         </is>
       </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr">
         <is>
           <t>5.790</t>
         </is>
       </c>
-      <c r="H24" s="0" t="inlineStr">
+      <c r="H24" s="7" t="inlineStr">
         <is>
           <t>0,77</t>
         </is>
       </c>
-      <c r="I24" s="0" t="inlineStr">
+      <c r="I24" s="7" t="inlineStr">
         <is>
           <t>R G XAVIER GUIMARAES EIRELI</t>
         </is>
       </c>
-      <c r="J24" s="0" t="inlineStr">
+      <c r="J24" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K24" s="0" t="inlineStr">
+      <c r="K24" s="7" t="inlineStr">
         <is>
           <t>160016 - COMANDO DO COMANDO MILITAR DA AMAZONIA/MEX/AM</t>
         </is>
       </c>
-      <c r="L24" s="0" t="inlineStr">
+      <c r="L24" s="7" t="inlineStr">
         <is>
           <t>23/06/2021</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+    <row r="25" ht="14.4" customHeight="1" s="4">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>00055/2020</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>00015</t>
         </is>
       </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="inlineStr">
         <is>
           <t>10.000</t>
         </is>
       </c>
-      <c r="H25" s="0" t="inlineStr">
+      <c r="H25" s="7" t="inlineStr">
         <is>
           <t>0,78</t>
         </is>
       </c>
-      <c r="I25" s="0" t="inlineStr">
+      <c r="I25" s="7" t="inlineStr">
         <is>
           <t>BRITO E FARIAS COMERCIO DE ARTIGOS DE PAPELARIA LTDA</t>
         </is>
       </c>
-      <c r="J25" s="0" t="inlineStr">
+      <c r="J25" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K25" s="0" t="inlineStr">
+      <c r="K25" s="7" t="inlineStr">
         <is>
           <t>160339 - 1 BATALHAO DE ENGENHARIA DE CONSTRUCAO</t>
         </is>
       </c>
-      <c r="L25" s="0" t="inlineStr">
+      <c r="L25" s="7" t="inlineStr">
         <is>
           <t>02/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+    <row r="26" ht="14.4" customHeight="1" s="4">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
+      <c r="B26" s="7" t="inlineStr">
         <is>
           <t>00004</t>
         </is>
       </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G26" s="7" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
+      <c r="H26" s="7" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I26" s="0" t="inlineStr">
+      <c r="I26" s="7" t="inlineStr">
         <is>
           <t>ROAD COMERCIO E SERVICOS EIRELI</t>
         </is>
       </c>
-      <c r="J26" s="0" t="inlineStr">
+      <c r="J26" s="7" t="inlineStr">
         <is>
           <t>ESTADO DE RONDONIA</t>
         </is>
       </c>
-      <c r="K26" s="0" t="inlineStr">
+      <c r="K26" s="7" t="inlineStr">
         <is>
           <t>926002 - DEPARTAMENTO ESTADUAL DE TRÂNSITO</t>
         </is>
       </c>
-      <c r="L26" s="0" t="inlineStr">
+      <c r="L26" s="7" t="inlineStr">
         <is>
           <t>24/11/2020</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+    <row r="27" ht="14.4" customHeight="1" s="4">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>00039/2020</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
+      <c r="B27" s="7" t="inlineStr">
         <is>
           <t>00018</t>
         </is>
       </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
         <is>
           <t>2.374</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
+      <c r="H27" s="7" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I27" s="0" t="inlineStr">
+      <c r="I27" s="7" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J27" s="0" t="inlineStr">
+      <c r="J27" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K27" s="0" t="inlineStr">
+      <c r="K27" s="7" t="inlineStr">
         <is>
           <t>784810 - CENTRO DE INTENDENCIA DA MARINHA EM BELEM</t>
         </is>
       </c>
-      <c r="L27" s="0" t="inlineStr">
+      <c r="L27" s="7" t="inlineStr">
         <is>
           <t>09/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
+    <row r="28" ht="14.4" customHeight="1" s="4">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>00007/2020</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>00006</t>
         </is>
       </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G28" s="7" t="inlineStr">
         <is>
           <t>1.860</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="H28" s="7" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I28" s="0" t="inlineStr">
+      <c r="I28" s="7" t="inlineStr">
         <is>
           <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J28" s="0" t="inlineStr">
+      <c r="J28" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K28" s="0" t="inlineStr">
+      <c r="K28" s="7" t="inlineStr">
         <is>
           <t>160526 - 3 COMPANHIA DE ENGENHARIA DE COMB.MECAN./RS</t>
         </is>
       </c>
-      <c r="L28" s="0" t="inlineStr">
+      <c r="L28" s="7" t="inlineStr">
         <is>
           <t>28/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
+    <row r="29" ht="14.4" customHeight="1" s="4">
+      <c r="A29" s="7" t="inlineStr">
         <is>
           <t>00007/2020</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
+      <c r="B29" s="7" t="inlineStr">
         <is>
           <t>00088</t>
         </is>
       </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G29" s="7" t="inlineStr">
         <is>
           <t>6.880</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
+      <c r="H29" s="7" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I29" s="0" t="inlineStr">
+      <c r="I29" s="7" t="inlineStr">
         <is>
           <t>R E LIMPEZA E CONSERVACAO LTDA</t>
         </is>
       </c>
-      <c r="J29" s="0" t="inlineStr">
+      <c r="J29" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K29" s="0" t="inlineStr">
+      <c r="K29" s="7" t="inlineStr">
         <is>
           <t>160011 - 4 DIVISAO DE LEVANTAMENTO/MEX/AM</t>
         </is>
       </c>
-      <c r="L29" s="0" t="inlineStr">
+      <c r="L29" s="7" t="inlineStr">
         <is>
           <t>21/12/2020</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
+    <row r="30" ht="14.4" customHeight="1" s="4">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
+      <c r="B30" s="7" t="inlineStr">
         <is>
           <t>00037</t>
         </is>
       </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G30" s="7" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="H30" s="0" t="inlineStr">
+      <c r="H30" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I30" s="0" t="inlineStr">
+      <c r="I30" s="7" t="inlineStr">
         <is>
           <t>MARY DUDA COMERCIO DE MATERIAL PARA CONSTRUCAO E SERVICOS DE DECORACAO EIRELI</t>
         </is>
       </c>
-      <c r="J30" s="0" t="inlineStr">
+      <c r="J30" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K30" s="0" t="inlineStr">
+      <c r="K30" s="7" t="inlineStr">
         <is>
           <t>160066 - COMISSAO REGIONAL DE OBRAS/11-MEX/DF</t>
         </is>
       </c>
-      <c r="L30" s="0" t="inlineStr">
+      <c r="L30" s="7" t="inlineStr">
         <is>
           <t>02/06/2021</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
+    <row r="31" ht="14.4" customHeight="1" s="4">
+      <c r="A31" s="7" t="inlineStr">
         <is>
           <t>00013/2020</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
+      <c r="B31" s="7" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G31" s="7" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="H31" s="0" t="inlineStr">
+      <c r="H31" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I31" s="0" t="inlineStr">
+      <c r="I31" s="7" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J31" s="0" t="inlineStr">
+      <c r="J31" s="7" t="inlineStr">
         <is>
           <t>CONSELHO FEDERAL DE ENGENHARIA E AGRONOMIA</t>
         </is>
       </c>
-      <c r="K31" s="0" t="inlineStr">
+      <c r="K31" s="7" t="inlineStr">
         <is>
           <t>927163 - CONSELHO REG. DE ENG. AGRON. DO EST. SERGIPE</t>
         </is>
       </c>
-      <c r="L31" s="0" t="inlineStr">
+      <c r="L31" s="7" t="inlineStr">
         <is>
           <t>28/07/2020</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
+    <row r="32" ht="14.4" customHeight="1" s="4">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>00047/2020</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>00022</t>
         </is>
       </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G32" s="7" t="inlineStr">
         <is>
           <t>11.800</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
+      <c r="H32" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I32" s="0" t="inlineStr">
+      <c r="I32" s="7" t="inlineStr">
         <is>
           <t>H. S. NEVES JUNIOR</t>
         </is>
       </c>
-      <c r="J32" s="0" t="inlineStr">
+      <c r="J32" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K32" s="0" t="inlineStr">
+      <c r="K32" s="7" t="inlineStr">
         <is>
           <t>160482 - 1A. BRIGADA DE INFANTARIA DE SELVA/RR</t>
         </is>
       </c>
-      <c r="L32" s="0" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>25/02/2021</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+    <row r="33" ht="14.4" customHeight="1" s="4">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="inlineStr">
         <is>
           <t>1.800</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
+      <c r="H33" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I33" s="0" t="inlineStr">
+      <c r="I33" s="7" t="inlineStr">
         <is>
           <t>T. C. C. DE A. FERREIRA COMERCIO E SERVICO</t>
         </is>
       </c>
-      <c r="J33" s="0" t="inlineStr">
+      <c r="J33" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K33" s="0" t="inlineStr">
+      <c r="K33" s="7" t="inlineStr">
         <is>
           <t>160482 - 1A. BRIGADA DE INFANTARIA DE SELVA/RR</t>
         </is>
       </c>
-      <c r="L33" s="0" t="inlineStr">
+      <c r="L33" s="7" t="inlineStr">
         <is>
           <t>04/03/2021</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+    <row r="34" ht="14.4" customHeight="1" s="4">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>00030/2020</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
+      <c r="B34" s="7" t="inlineStr">
         <is>
           <t>00016</t>
         </is>
       </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G34" s="0" t="inlineStr">
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="inlineStr">
         <is>
           <t>1.400</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
+      <c r="H34" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I34" s="0" t="inlineStr">
+      <c r="I34" s="7" t="inlineStr">
         <is>
           <t>PLASTIFIK LTDA</t>
         </is>
       </c>
-      <c r="J34" s="0" t="inlineStr">
+      <c r="J34" s="7" t="inlineStr">
         <is>
           <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
         </is>
       </c>
-      <c r="K34" s="0" t="inlineStr">
+      <c r="K34" s="7" t="inlineStr">
         <is>
           <t>155012 - HOSPITAL U. CASSIANO ANTONIO DE MORAIS</t>
         </is>
       </c>
-      <c r="L34" s="0" t="inlineStr">
+      <c r="L34" s="7" t="inlineStr">
         <is>
           <t>04/09/2020</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+    <row r="35" ht="14.4" customHeight="1" s="4">
+      <c r="A35" s="7" t="inlineStr">
         <is>
           <t>00017/2020</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
+      <c r="B35" s="7" t="inlineStr">
         <is>
           <t>00017</t>
         </is>
       </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
+      <c r="H35" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I35" s="0" t="inlineStr">
+      <c r="I35" s="7" t="inlineStr">
         <is>
           <t>PRIME DISTRIBUIDORA DE MATERIAL DE ESCRITORIO E LIMPEZA LTDA</t>
         </is>
       </c>
-      <c r="J35" s="0" t="inlineStr">
+      <c r="J35" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K35" s="0" t="inlineStr">
+      <c r="K35" s="7" t="inlineStr">
         <is>
           <t>120073 - MAER - BASE AEREA DE FLORIANOPOLIS - SC</t>
         </is>
       </c>
-      <c r="L35" s="0" t="inlineStr">
+      <c r="L35" s="7" t="inlineStr">
         <is>
           <t>21/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+    <row r="36" ht="14.4" customHeight="1" s="4">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>00042/2020</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
+      <c r="B36" s="7" t="inlineStr">
         <is>
           <t>00037</t>
         </is>
       </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H36" s="0" t="inlineStr">
+      <c r="H36" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I36" s="0" t="inlineStr">
+      <c r="I36" s="7" t="inlineStr">
         <is>
           <t>INTERBRINQ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J36" s="0" t="inlineStr">
+      <c r="J36" s="7" t="inlineStr">
         <is>
           <t>MINISTERIO DA SAUDE</t>
         </is>
       </c>
-      <c r="K36" s="0" t="inlineStr">
+      <c r="K36" s="7" t="inlineStr">
         <is>
           <t>250059 - INSTITUTO NACIONAL DE CARDIOLOGIA</t>
         </is>
       </c>
-      <c r="L36" s="0" t="inlineStr">
+      <c r="L36" s="7" t="inlineStr">
         <is>
           <t>05/03/2021</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+    <row r="37" ht="14.4" customHeight="1" s="4">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>00019/2020</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
+      <c r="B37" s="7" t="inlineStr">
         <is>
           <t>00021</t>
         </is>
       </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="inlineStr">
         <is>
           <t>8.000</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H37" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I37" s="0" t="inlineStr">
+      <c r="I37" s="7" t="inlineStr">
         <is>
           <t>SLIM SUPRIMENTOS LTDA</t>
         </is>
       </c>
-      <c r="J37" s="0" t="inlineStr">
+      <c r="J37" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K37" s="0" t="inlineStr">
+      <c r="K37" s="7" t="inlineStr">
         <is>
           <t>120016 - GRUPAMENTO DE APOIO DE SÃO JOSÉ DOS CAMPOS</t>
         </is>
       </c>
-      <c r="L37" s="0" t="inlineStr">
+      <c r="L37" s="7" t="inlineStr">
         <is>
           <t>31/08/2020</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+    <row r="38" ht="14.4" customHeight="1" s="4">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>00024/2020</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
+      <c r="B38" s="7" t="inlineStr">
         <is>
           <t>00059</t>
         </is>
       </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
+      <c r="C38" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="H38" s="0" t="inlineStr">
+      <c r="H38" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I38" s="0" t="inlineStr">
+      <c r="I38" s="7" t="inlineStr">
         <is>
           <t>SCHNEIDER CONSULTORIA EIRELI</t>
         </is>
       </c>
-      <c r="J38" s="0" t="inlineStr">
+      <c r="J38" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K38" s="0" t="inlineStr">
+      <c r="K38" s="7" t="inlineStr">
         <is>
           <t>771280 - CENTRO DE MUNICAO DA MARINHA</t>
         </is>
       </c>
-      <c r="L38" s="0" t="inlineStr">
+      <c r="L38" s="7" t="inlineStr">
         <is>
           <t>11/08/2020</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+    <row r="39" ht="14.4" customHeight="1" s="4">
+      <c r="A39" s="7" t="inlineStr">
         <is>
           <t>00006/2019</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
+      <c r="B39" s="7" t="inlineStr">
         <is>
           <t>00019</t>
         </is>
       </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E39" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G39" s="0" t="inlineStr">
+      <c r="C39" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G39" s="7" t="inlineStr">
         <is>
           <t>3.360</t>
         </is>
       </c>
-      <c r="H39" s="0" t="inlineStr">
+      <c r="H39" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I39" s="0" t="inlineStr">
+      <c r="I39" s="7" t="inlineStr">
         <is>
           <t>UNIAGRO RORAIMA EMPREENDIMENTOS EIRELI</t>
         </is>
       </c>
-      <c r="J39" s="0" t="inlineStr">
+      <c r="J39" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K39" s="0" t="inlineStr">
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>160352 - COMANDO DE FRONT.-RR E 7.BAT.DE INF.DE SELVA</t>
         </is>
       </c>
-      <c r="L39" s="0" t="inlineStr">
+      <c r="L39" s="7" t="inlineStr">
         <is>
           <t>17/07/2020</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+    <row r="40" ht="14.4" customHeight="1" s="4">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>00008/2021</t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
+      <c r="B40" s="7" t="inlineStr">
         <is>
           <t>00002</t>
         </is>
       </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E40" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G40" s="0" t="inlineStr">
+      <c r="C40" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="H40" s="0" t="inlineStr">
+      <c r="H40" s="7" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I40" s="0" t="inlineStr">
+      <c r="I40" s="7" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J40" s="0" t="inlineStr">
+      <c r="J40" s="7" t="inlineStr">
         <is>
           <t>MINISTERIO DA SAUDE</t>
         </is>
       </c>
-      <c r="K40" s="0" t="inlineStr">
+      <c r="K40" s="7" t="inlineStr">
         <is>
           <t>257023 - DISTRITO SANIT.ESP.INDÍGENA AL/SE</t>
         </is>
       </c>
-      <c r="L40" s="0" t="inlineStr">
+      <c r="L40" s="7" t="inlineStr">
         <is>
           <t>07/04/2021</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+    <row r="41" ht="14.4" customHeight="1" s="4">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>00003/2020</t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
+      <c r="B41" s="7" t="inlineStr">
         <is>
           <t>00055</t>
         </is>
       </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G41" s="7" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="H41" s="0" t="inlineStr">
+      <c r="H41" s="7" t="inlineStr">
         <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="I41" s="0" t="inlineStr">
+      <c r="I41" s="7" t="inlineStr">
         <is>
           <t>SUPRY OFFICE DISTRIBUIDORA DE MATERIAIS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J41" s="0" t="inlineStr">
+      <c r="J41" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K41" s="0" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>160317 - ESCOLA DE INSTRUCAO ESPECIALIZADA/RJ</t>
         </is>
       </c>
-      <c r="L41" s="0" t="inlineStr">
+      <c r="L41" s="7" t="inlineStr">
         <is>
           <t>01/07/2021</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+    <row r="42" ht="14.4" customHeight="1" s="4">
+      <c r="A42" s="7" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B42" s="0" t="inlineStr">
+      <c r="B42" s="7" t="inlineStr">
         <is>
           <t>00024</t>
         </is>
       </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E42" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G42" s="0" t="inlineStr">
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="inlineStr">
         <is>
           <t>775</t>
         </is>
       </c>
-      <c r="H42" s="0" t="inlineStr">
+      <c r="H42" s="7" t="inlineStr">
         <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="I42" s="0" t="inlineStr">
+      <c r="I42" s="7" t="inlineStr">
         <is>
           <t>R G XAVIER GUIMARAES EIRELI</t>
         </is>
       </c>
-      <c r="J42" s="0" t="inlineStr">
+      <c r="J42" s="7" t="inlineStr">
         <is>
           <t>MINISTERIO DA SAUDE</t>
         </is>
       </c>
-      <c r="K42" s="0" t="inlineStr">
+      <c r="K42" s="7" t="inlineStr">
         <is>
           <t>257052 - DISTRITO SANIT.ESP.INDÍGENA - YANOMAMI</t>
         </is>
       </c>
-      <c r="L42" s="0" t="inlineStr">
+      <c r="L42" s="7" t="inlineStr">
         <is>
           <t>22/03/2021</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+    <row r="43" ht="14.4" customHeight="1" s="4">
+      <c r="A43" s="7" t="inlineStr">
         <is>
           <t>00034/2020</t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
+      <c r="B43" s="7" t="inlineStr">
         <is>
           <t>00006</t>
         </is>
       </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="inlineStr">
         <is>
           <t>4.700</t>
         </is>
       </c>
-      <c r="H43" s="0" t="inlineStr">
+      <c r="H43" s="7" t="inlineStr">
         <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="I43" s="0" t="inlineStr">
+      <c r="I43" s="7" t="inlineStr">
         <is>
           <t>RAFA PAPER DISTRIBUIDORA EIRELI</t>
         </is>
       </c>
-      <c r="J43" s="0" t="inlineStr">
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>JUSTICA FEDERAL</t>
         </is>
       </c>
-      <c r="K43" s="0" t="inlineStr">
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>090027 - TRIBUNAL REGIONAL FEDERAL-SEC.1A.REG./DF</t>
         </is>
       </c>
-      <c r="L43" s="0" t="inlineStr">
+      <c r="L43" s="7" t="inlineStr">
         <is>
           <t>03/12/2020</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+    <row r="44" ht="14.4" customHeight="1" s="4">
+      <c r="A44" s="7" t="inlineStr">
         <is>
           <t>00008/2020</t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
+      <c r="B44" s="7" t="inlineStr">
         <is>
           <t>00007</t>
         </is>
       </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G44" s="7" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H44" s="0" t="inlineStr">
+      <c r="H44" s="7" t="inlineStr">
         <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="I44" s="0" t="inlineStr">
+      <c r="I44" s="7" t="inlineStr">
         <is>
           <t>RAFA PAPER DISTRIBUIDORA EIRELI</t>
         </is>
       </c>
-      <c r="J44" s="0" t="inlineStr">
+      <c r="J44" s="7" t="inlineStr">
         <is>
           <t>DISTRITO FEDERAL</t>
         </is>
       </c>
-      <c r="K44" s="0" t="inlineStr">
+      <c r="K44" s="7" t="inlineStr">
         <is>
           <t>925046 - COMPANHIA DO METROPOLITANO DO DIST. FEDERAL</t>
         </is>
       </c>
-      <c r="L44" s="0" t="inlineStr">
+      <c r="L44" s="7" t="inlineStr">
         <is>
           <t>09/12/2020</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+    <row r="45" ht="14.4" customHeight="1" s="4">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>00023/2020</t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
+      <c r="B45" s="7" t="inlineStr">
         <is>
           <t>00071</t>
         </is>
       </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G45" s="7" t="inlineStr">
         <is>
           <t>1.182</t>
         </is>
       </c>
-      <c r="H45" s="0" t="inlineStr">
+      <c r="H45" s="7" t="inlineStr">
         <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="I45" s="0" t="inlineStr">
+      <c r="I45" s="7" t="inlineStr">
         <is>
           <t>INTERBRINQ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J45" s="0" t="inlineStr">
+      <c r="J45" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K45" s="0" t="inlineStr">
+      <c r="K45" s="7" t="inlineStr">
         <is>
           <t>795380 - BASE DE FUZILEIROS NAVAIS DA ILHA DAS FLORES</t>
         </is>
       </c>
-      <c r="L45" s="0" t="inlineStr">
+      <c r="L45" s="7" t="inlineStr">
         <is>
           <t>06/01/2021</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="inlineStr">
+    <row r="46" ht="14.4" customHeight="1" s="4">
+      <c r="A46" s="7" t="inlineStr">
         <is>
           <t>00104/2020</t>
         </is>
       </c>
-      <c r="B46" s="0" t="inlineStr">
+      <c r="B46" s="7" t="inlineStr">
         <is>
           <t>00003</t>
         </is>
       </c>
-      <c r="C46" s="0" t="inlineStr">
+      <c r="C46" s="7" t="inlineStr">
         <is>
           <t>Dispensa de Licitação</t>
         </is>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E46" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G46" s="0" t="inlineStr">
+      <c r="D46" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
+      <c r="H46" s="7" t="inlineStr">
         <is>
           <t>0,8333</t>
         </is>
       </c>
-      <c r="I46" s="0" t="inlineStr">
+      <c r="I46" s="7" t="inlineStr">
         <is>
           <t>BAMBOLE EDITORA E LIVRARIA LTDA</t>
         </is>
       </c>
-      <c r="J46" s="0" t="inlineStr">
+      <c r="J46" s="7" t="inlineStr">
         <is>
           <t>UNIVERSIDADE FEDERAL DO RIO DE JANEIRO</t>
         </is>
       </c>
-      <c r="K46" s="0" t="inlineStr">
+      <c r="K46" s="7" t="inlineStr">
         <is>
           <t>153149 - MEC-INSTITUTO DE PSIQUIATRIA DA UF/RJ</t>
         </is>
       </c>
-      <c r="L46" s="0" t="inlineStr">
+      <c r="L46" s="7" t="inlineStr">
         <is>
           <t>15/10/2020</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="inlineStr">
+    <row r="47" ht="14.4" customHeight="1" s="4">
+      <c r="A47" s="7" t="inlineStr">
         <is>
           <t>00005/2020</t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
+      <c r="B47" s="7" t="inlineStr">
         <is>
           <t>00015</t>
         </is>
       </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G47" s="7" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
+      <c r="H47" s="7" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I47" s="0" t="inlineStr">
+      <c r="I47" s="7" t="inlineStr">
         <is>
           <t>SLIM SUPRIMENTOS LTDA</t>
         </is>
       </c>
-      <c r="J47" s="0" t="inlineStr">
+      <c r="J47" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K47" s="0" t="inlineStr">
+      <c r="K47" s="7" t="inlineStr">
         <is>
           <t>711000 - GABINETE DO COMANDANTE DA MARINHA</t>
         </is>
       </c>
-      <c r="L47" s="0" t="inlineStr">
+      <c r="L47" s="7" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="inlineStr">
+    <row r="48" ht="14.4" customHeight="1" s="4">
+      <c r="A48" s="7" t="inlineStr">
         <is>
           <t>00004/2020</t>
         </is>
       </c>
-      <c r="B48" s="0" t="inlineStr">
+      <c r="B48" s="7" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="C48" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E48" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G48" s="0" t="inlineStr">
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr">
         <is>
           <t>1.150</t>
         </is>
       </c>
-      <c r="H48" s="0" t="inlineStr">
+      <c r="H48" s="7" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I48" s="0" t="inlineStr">
+      <c r="I48" s="7" t="inlineStr">
         <is>
           <t>DIGITAL PAPELARIA E INFORMATICA  EIRELI</t>
         </is>
       </c>
-      <c r="J48" s="0" t="inlineStr">
+      <c r="J48" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K48" s="0" t="inlineStr">
+      <c r="K48" s="7" t="inlineStr">
         <is>
           <t>763000 - DIRET.DO PESSOAL CIVIL DA MARINHA/DF</t>
         </is>
       </c>
-      <c r="L48" s="0" t="inlineStr">
+      <c r="L48" s="7" t="inlineStr">
         <is>
           <t>12/03/2021</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="inlineStr">
+    <row r="49" ht="14.4" customHeight="1" s="4">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>00025/2020</t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
+      <c r="B49" s="7" t="inlineStr">
         <is>
           <t>00037</t>
         </is>
       </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="inlineStr">
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G49" s="7" t="inlineStr">
         <is>
           <t>3.048</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
+      <c r="H49" s="7" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I49" s="0" t="inlineStr">
+      <c r="I49" s="7" t="inlineStr">
         <is>
           <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
         </is>
       </c>
-      <c r="J49" s="0" t="inlineStr">
+      <c r="J49" s="7" t="inlineStr">
         <is>
           <t>INST.FED.DE EDUC.,CIE.E TEC.SUL-RIO-GRANDENSE</t>
         </is>
       </c>
-      <c r="K49" s="0" t="inlineStr">
+      <c r="K49" s="7" t="inlineStr">
         <is>
           <t>158126 - INST.FED.SUL R.GRANDENSE</t>
         </is>
       </c>
-      <c r="L49" s="0" t="inlineStr">
+      <c r="L49" s="7" t="inlineStr">
         <is>
           <t>22/04/2021</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="inlineStr">
+    <row r="50" ht="14.4" customHeight="1" s="4">
+      <c r="A50" s="7" t="inlineStr">
         <is>
           <t>00074/2020</t>
         </is>
       </c>
-      <c r="B50" s="0" t="inlineStr">
+      <c r="B50" s="7" t="inlineStr">
         <is>
           <t>00022</t>
         </is>
       </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E50" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G50" s="0" t="inlineStr">
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G50" s="7" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H50" s="0" t="inlineStr">
+      <c r="H50" s="7" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I50" s="0" t="inlineStr">
+      <c r="I50" s="7" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J50" s="0" t="inlineStr">
+      <c r="J50" s="7" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K50" s="0" t="inlineStr">
+      <c r="K50" s="7" t="inlineStr">
         <is>
           <t>120635 - GRUPAMENTO DE APOIO DO GUARATINGUETÁ</t>
         </is>
       </c>
-      <c r="L50" s="0" t="inlineStr">
+      <c r="L50" s="7" t="inlineStr">
         <is>
           <t>10/09/2020</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="inlineStr">
+    <row r="51" ht="14.4" customHeight="1" s="4">
+      <c r="A51" s="7" t="inlineStr">
         <is>
           <t>01050/2020</t>
         </is>
       </c>
-      <c r="B51" s="0" t="inlineStr">
+      <c r="B51" s="7" t="inlineStr">
         <is>
           <t>00014</t>
         </is>
       </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E51" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G51" s="0" t="inlineStr">
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G51" s="7" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
+      <c r="H51" s="7" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I51" s="0" t="inlineStr">
+      <c r="I51" s="7" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J51" s="0" t="inlineStr">
+      <c r="J51" s="7" t="inlineStr">
         <is>
           <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
         </is>
       </c>
-      <c r="K51" s="0" t="inlineStr">
+      <c r="K51" s="7" t="inlineStr">
         <is>
           <t>155911 - HOSPITAL UNIVERSITÁRIO GAFFRÉE E GUINLE</t>
         </is>
       </c>
-      <c r="L51" s="0" t="inlineStr">
+      <c r="L51" s="7" t="inlineStr">
         <is>
           <t>07/12/2020</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="inlineStr">
+    <row r="52" ht="14.4" customHeight="1" s="4">
+      <c r="A52" s="7" t="inlineStr">
         <is>
           <t>00055/2020</t>
         </is>
       </c>
-      <c r="B52" s="0" t="inlineStr">
+      <c r="B52" s="7" t="inlineStr">
         <is>
           <t>00004</t>
         </is>
       </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E52" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G52" s="0" t="inlineStr">
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E52" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G52" s="7" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H52" s="0" t="inlineStr">
+      <c r="H52" s="7" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I52" s="0" t="inlineStr">
+      <c r="I52" s="7" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J52" s="0" t="inlineStr">
+      <c r="J52" s="7" t="inlineStr">
         <is>
           <t>JUSTICA FEDERAL</t>
         </is>
       </c>
-      <c r="K52" s="0" t="inlineStr">
+      <c r="K52" s="7" t="inlineStr">
         <is>
           <t>090028 - TRIBUNAL REGIONAL FEDERAL DA 2A. REGIAO</t>
         </is>
       </c>
-      <c r="L52" s="0" t="inlineStr">
+      <c r="L52" s="7" t="inlineStr">
         <is>
           <t>27/11/2020</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="inlineStr">
+    <row r="53" ht="14.4" customHeight="1" s="4">
+      <c r="A53" s="7" t="inlineStr">
         <is>
           <t>00004/2020</t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E53" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G53" s="0" t="inlineStr">
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
+      <c r="H53" s="7" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I53" s="0" t="inlineStr">
+      <c r="I53" s="7" t="inlineStr">
         <is>
           <t>M L P COSTA</t>
         </is>
       </c>
-      <c r="J53" s="0" t="inlineStr">
+      <c r="J53" s="7" t="inlineStr">
         <is>
           <t>ESTADO DE RORAIMA</t>
         </is>
       </c>
-      <c r="K53" s="0" t="inlineStr">
+      <c r="K53" s="7" t="inlineStr">
         <is>
           <t>926196 - PROCURADORIA GERAL DE JUSTIÇA DO ESTADO DE RR</t>
         </is>
       </c>
-      <c r="L53" s="0" t="inlineStr">
+      <c r="L53" s="7" t="inlineStr">
         <is>
           <t>03/09/2020</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="inlineStr">
+    <row r="54" ht="14.4" customHeight="1" s="4">
+      <c r="A54" s="7" t="inlineStr">
         <is>
           <t>00013/2020</t>
         </is>
       </c>
-      <c r="B54" s="0" t="inlineStr">
+      <c r="B54" s="7" t="inlineStr">
         <is>
           <t>00009</t>
         </is>
       </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G54" s="0" t="inlineStr">
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
         <is>
           <t>10.490</t>
         </is>
       </c>
-      <c r="H54" s="0" t="inlineStr">
+      <c r="H54" s="7" t="inlineStr">
         <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="I54" s="0" t="inlineStr">
+      <c r="I54" s="7" t="inlineStr">
         <is>
           <t>SUPRY OFFICE DISTRIBUIDORA DE MATERIAIS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J54" s="0" t="inlineStr">
+      <c r="J54" s="7" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K54" s="0" t="inlineStr">
+      <c r="K54" s="7" t="inlineStr">
         <is>
           <t>160303 - BASE DE ADMINIST. E APOIO DA 1ª REG. MILITAR</t>
         </is>
       </c>
-      <c r="L54" s="0" t="inlineStr">
+      <c r="L54" s="7" t="inlineStr">
         <is>
           <t>11/03/2021</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="inlineStr">
+    <row r="55" ht="14.4" customHeight="1" s="4">
+      <c r="A55" s="7" t="inlineStr">
         <is>
           <t>00014/2019</t>
         </is>
       </c>
-      <c r="B55" s="0" t="inlineStr">
+      <c r="B55" s="7" t="inlineStr">
         <is>
           <t>00009</t>
         </is>
       </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E55" s="0" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G55" s="0" t="inlineStr">
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
         <is>
           <t>53.846</t>
         </is>
       </c>
-      <c r="H55" s="0" t="inlineStr">
+      <c r="H55" s="7" t="inlineStr">
         <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="I55" s="0" t="inlineStr">
+      <c r="I55" s="7" t="inlineStr">
         <is>
           <t>R TECH COMERCIO E SERVICOS DISTRIBUIDORA EIRELI</t>
         </is>
       </c>
-      <c r="J55" s="0" t="inlineStr">
+      <c r="J55" s="7" t="inlineStr">
         <is>
           <t>INSTITUTO NACIONAL DO SEGURO SOCIAL</t>
         </is>
       </c>
-      <c r="K55" s="0" t="inlineStr">
+      <c r="K55" s="7" t="inlineStr">
         <is>
           <t>512006 - COORDENACAO GERAL DE LICITACOES E CONTRATOS</t>
         </is>
       </c>
-      <c r="L55" s="0" t="inlineStr">
+      <c r="L55" s="7" t="inlineStr">
         <is>
           <t>20/11/2020</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="8" t="inlineStr">
         <is>
           <t>Média</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="8" t="n">
         <v>0.750626</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="8" t="inlineStr">
         <is>
           <t>Desvio</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="8" t="n">
         <v>0.1526247429722551</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="8" t="inlineStr">
         <is>
           <t>Coeficiente</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="8" t="n">
         <v>0.203329944569273</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="A60" s="8" t="inlineStr">
         <is>
           <t>Mediana</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="8" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="8" t="inlineStr">
         <is>
           <t>Preço</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="8" t="n">
         <v>0.750626</v>
       </c>
     </row>
-    <row r="70"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="default" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="B57" s="8" t="n">
-        <v>0.750626</v>
+        <v>0.7527354166666667</v>
       </c>
     </row>
     <row r="58">
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="B58" s="8" t="n">
-        <v>0.1526247429722551</v>
+        <v>0.1554185652394826</v>
       </c>
     </row>
     <row r="59">
@@ -3639,7 +3639,7 @@
         </is>
       </c>
       <c r="B59" s="8" t="n">
-        <v>0.203329944569273</v>
+        <v>0.2064717054602287</v>
       </c>
     </row>
     <row r="60">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="B61" s="8" t="n">
-        <v>0.750626</v>
+        <v>0.7527354166666667</v>
       </c>
     </row>
   </sheetData>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -4,52 +4,30 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="item2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="item1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <color rgb="FF000000"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -58,13 +36,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="00fbe5d6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00e2f0d9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cccccc"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,107 +65,86 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -474,445 +435,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="36.42" customWidth="1" style="3" min="1" max="1"/>
-    <col width="109.55" customWidth="1" style="3" min="2" max="2"/>
-    <col width="35.28" customWidth="1" style="3" min="3" max="3"/>
-    <col width="20" customWidth="1" style="3" min="4" max="4"/>
-    <col width="89.55" customWidth="1" style="3" min="5" max="5"/>
-    <col width="28.14" customWidth="1" style="3" min="6" max="6"/>
-    <col width="23.43" customWidth="1" style="3" min="7" max="7"/>
-    <col width="17.57" customWidth="1" style="3" min="8" max="8"/>
-    <col width="94.26000000000001" customWidth="1" style="3" min="9" max="9"/>
-    <col width="54.13" customWidth="1" style="3" min="10" max="10"/>
-    <col width="64.84" customWidth="1" style="3" min="11" max="11"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Tipo painel:</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>MATERIAIS</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" s="4">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Quantidade total de registros:</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" s="4">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Registros apresentados:</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>51 a 50</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" s="4">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Filtros:</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição :  CANETA MARCA-TEXTO\, MATERIAL:PLÁSTICO\, TIPO PONTA:FLUORESCENTE\, COR:AMARELA </t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ano da Compra :  2020, 2021 </t>
         </is>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" s="4">
-      <c r="A5" s="6" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Identificação da Compra</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Número do Item</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Modalidade</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Código do CATMAT</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>Unidade de Fornecimento</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>Quantidade Ofertada</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>Valor Unitário</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>Fornecedor</t>
         </is>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>Órgão</t>
         </is>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>UASG - Unidade Gestora</t>
         </is>
       </c>
-      <c r="L5" s="6" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>Data da Compra</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1" s="4">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>Item Ativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>00003/2020</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>00013</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P1</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>350</t>
         </is>
       </c>
-      <c r="H6" s="7" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,089</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>L.H. DE SOUZA FREITAS</t>
         </is>
       </c>
-      <c r="J6" s="7" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="K6" s="7" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>389260 - CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="L6" s="7" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>15/07/2020</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="14.4" customHeight="1" s="4">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>00001/2021</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>00031</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>CAIXA 12,00 UN</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>1.300</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>0,109</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>ESTADO DO RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>988815 - PREF.MUNICIPAL DO RIO GRANDE/RS</t>
         </is>
       </c>
-      <c r="L7" s="7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>02/06/2021</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" s="4">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>00021/2020</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>00040</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>1.500</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>SOUZA E FRAGATA SERVICOS DE REFORMAS, MANUTENCAO, LIMPEZA E CONSERVACAO PREDIAL</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K8" s="7" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>160537 - COMANDO 16A BRIGADA DE INFANT.DE SELVA/MEX/AM</t>
         </is>
       </c>
-      <c r="L8" s="7" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>06/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" s="4">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>00041</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P2</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>4.954</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0,61</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>AAZ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>160186 - BASE DE ADMINISTRAçãO DO QGEX</t>
         </is>
       </c>
-      <c r="L9" s="7" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>26/02/2021</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" s="4">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>00050/2020</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>1.500</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>DGW BRASIL EIRELI</t>
         </is>
       </c>
-      <c r="J10" s="7" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>UNIVERSIDADE FEDERAL DO PARANA</t>
         </is>
       </c>
-      <c r="K10" s="7" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>153079 - UNIVERSIDADE FEDERAL DO PARANA</t>
         </is>
       </c>
-      <c r="L10" s="7" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>16/07/2020</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" s="4">
+      <c r="M10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>00011/2020</t>
@@ -971,188 +939,200 @@
           <t>11/09/2020</t>
         </is>
       </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" s="4">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>00013/2020</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>00017</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>5.000</t>
         </is>
       </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>0,70</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K12" s="7" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>160448 - 5 BATALHAO DE ENGENHARIA DE COMBATE</t>
         </is>
       </c>
-      <c r="L12" s="7" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>30/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1" s="4">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="M12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>00005/2020</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>00054</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>2.700</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>0,71</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>160428 - 2 REGIMENTO DE CAVALARIA MECANIZADO/RS</t>
         </is>
       </c>
-      <c r="L13" s="7" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>13/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1" s="4">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="M13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>00364</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr">
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="I14" s="7" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
         </is>
       </c>
-      <c r="J14" s="7" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K14" s="7" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>120669 - BASE AéREA DE SANTA CRUZ</t>
         </is>
       </c>
-      <c r="L14" s="7" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
-    </row>
-    <row r="15" ht="14.4" customHeight="1" s="4">
+      <c r="M14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>00020/2020</t>
@@ -1211,2460 +1191,5920 @@
           <t>31/08/2020</t>
         </is>
       </c>
-    </row>
-    <row r="16" ht="14.4" customHeight="1" s="4">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="M15" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>00016/2019</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>00004</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H16" s="7" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>0,73</t>
         </is>
       </c>
-      <c r="I16" s="7" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>LADO C COMERCIO E IMPORTACAO HOME OFFICE EIRELI</t>
         </is>
       </c>
-      <c r="J16" s="7" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>ESTADO DE RONDONIA</t>
         </is>
       </c>
-      <c r="K16" s="7" t="inlineStr">
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>926002 - DEPARTAMENTO ESTADUAL DE TRÂNSITO</t>
         </is>
       </c>
-      <c r="L16" s="7" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>21/08/2020</t>
         </is>
       </c>
-    </row>
-    <row r="17" ht="14.4" customHeight="1" s="4">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="M16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>00044/2019</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>00013</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="H17" s="7" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>0,74</t>
         </is>
       </c>
-      <c r="I17" s="7" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>BRITO E FARIAS COMERCIO DE ARTIGOS DE PAPELARIA LTDA</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
         </is>
       </c>
-      <c r="K17" s="7" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>155023 - HOSPITAL UNIVERSITÁRIO LAURO WANDERLEY</t>
         </is>
       </c>
-      <c r="L17" s="7" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>12/02/2021</t>
         </is>
       </c>
-    </row>
-    <row r="18" ht="14.4" customHeight="1" s="4">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="M17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>00038</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>5.607</t>
         </is>
       </c>
-      <c r="H18" s="7" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I18" s="7" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
         </is>
       </c>
-      <c r="J18" s="7" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K18" s="7" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>120669 - BASE AéREA DE SANTA CRUZ</t>
         </is>
       </c>
-      <c r="L18" s="7" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
-    </row>
-    <row r="19" ht="14.4" customHeight="1" s="4">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="M18" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>00006/2020</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>00002</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>PRINTSUL COMERCIO ATACADISTA LTDA</t>
         </is>
       </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>DEPARTAMENTO DE POLICIA FEDERAL</t>
         </is>
       </c>
-      <c r="K19" s="7" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>200370 - SUPERINTENDENCIA REG.DEP.POLICIA FEDERAL - SC</t>
         </is>
       </c>
-      <c r="L19" s="7" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>11/09/2020</t>
         </is>
       </c>
-    </row>
-    <row r="20" ht="14.4" customHeight="1" s="4">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="M19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>00006/2020</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>00019</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="H20" s="7" t="inlineStr">
+      <c r="H20" s="3" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I20" s="7" t="inlineStr">
+      <c r="I20" s="3" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>FUNDACAO OSWALDO CRUZ</t>
         </is>
       </c>
-      <c r="K20" s="7" t="inlineStr">
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>254422 - CENTRO DE PESQUISAS GONCALO MUNIZ - FIOCRUZ</t>
         </is>
       </c>
-      <c r="L20" s="7" t="inlineStr">
+      <c r="L20" s="3" t="inlineStr">
         <is>
           <t>13/08/2020</t>
         </is>
       </c>
-    </row>
-    <row r="21" ht="14.4" customHeight="1" s="4">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="M20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>00030</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>ARARIPE COMERCIO E LOCACOES LTDA</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>ESTADO DA BAHIA</t>
         </is>
       </c>
-      <c r="K21" s="7" t="inlineStr">
+      <c r="K21" s="3" t="inlineStr">
         <is>
           <t>983045 - PREFEITURA MUNICIPAL DE SOBRADINHO/BA</t>
         </is>
       </c>
-      <c r="L21" s="7" t="inlineStr">
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t>15/02/2021</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="14.4" customHeight="1" s="4">
-      <c r="A22" s="7" t="inlineStr">
+      <c r="M21" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>00001/2021</t>
         </is>
       </c>
-      <c r="B22" s="7" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>00058</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="H22" s="7" t="inlineStr">
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I22" s="7" t="inlineStr">
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>GRAFICA E EDITORA LUAR EIRELI</t>
         </is>
       </c>
-      <c r="J22" s="7" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K22" s="7" t="inlineStr">
+      <c r="K22" s="3" t="inlineStr">
         <is>
           <t>160004 - 59  BATALHAO DE INFANTARIA MOTORIZADO/AL</t>
         </is>
       </c>
-      <c r="L22" s="7" t="inlineStr">
+      <c r="L22" s="3" t="inlineStr">
         <is>
           <t>30/03/2021</t>
         </is>
       </c>
-    </row>
-    <row r="23" ht="14.4" customHeight="1" s="4">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="M22" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>00060/2020</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>00020</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Dispensa de Licitação</t>
         </is>
       </c>
-      <c r="D23" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="D23" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H23" s="7" t="inlineStr">
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="3" t="inlineStr">
         <is>
           <t>BAZAR E PAPELARIA MN LTDA</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K23" s="7" t="inlineStr">
+      <c r="K23" s="3" t="inlineStr">
         <is>
           <t>160291 - CENTRO TECNOLOGICO DO EXERCITO/RJ</t>
         </is>
       </c>
-      <c r="L23" s="7" t="inlineStr">
+      <c r="L23" s="3" t="inlineStr">
         <is>
           <t>13/07/2020</t>
         </is>
       </c>
-    </row>
-    <row r="24" ht="14.4" customHeight="1" s="4">
-      <c r="A24" s="7" t="inlineStr">
+      <c r="M23" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B24" s="7" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>00104</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>5.790</t>
         </is>
       </c>
-      <c r="H24" s="7" t="inlineStr">
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>0,77</t>
         </is>
       </c>
-      <c r="I24" s="7" t="inlineStr">
+      <c r="I24" s="3" t="inlineStr">
         <is>
           <t>R G XAVIER GUIMARAES EIRELI</t>
         </is>
       </c>
-      <c r="J24" s="7" t="inlineStr">
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K24" s="7" t="inlineStr">
+      <c r="K24" s="3" t="inlineStr">
         <is>
           <t>160016 - COMANDO DO COMANDO MILITAR DA AMAZONIA/MEX/AM</t>
         </is>
       </c>
-      <c r="L24" s="7" t="inlineStr">
+      <c r="L24" s="3" t="inlineStr">
         <is>
           <t>23/06/2021</t>
         </is>
       </c>
-    </row>
-    <row r="25" ht="14.4" customHeight="1" s="4">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="M24" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>00055/2020</t>
         </is>
       </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>00015</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>10.000</t>
         </is>
       </c>
-      <c r="H25" s="7" t="inlineStr">
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>0,78</t>
         </is>
       </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="I25" s="3" t="inlineStr">
         <is>
           <t>BRITO E FARIAS COMERCIO DE ARTIGOS DE PAPELARIA LTDA</t>
         </is>
       </c>
-      <c r="J25" s="7" t="inlineStr">
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K25" s="7" t="inlineStr">
+      <c r="K25" s="3" t="inlineStr">
         <is>
           <t>160339 - 1 BATALHAO DE ENGENHARIA DE CONSTRUCAO</t>
         </is>
       </c>
-      <c r="L25" s="7" t="inlineStr">
+      <c r="L25" s="3" t="inlineStr">
         <is>
           <t>02/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="26" ht="14.4" customHeight="1" s="4">
-      <c r="A26" s="7" t="inlineStr">
+      <c r="M25" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B26" s="7" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>00004</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="H26" s="7" t="inlineStr">
+      <c r="H26" s="3" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I26" s="7" t="inlineStr">
+      <c r="I26" s="3" t="inlineStr">
         <is>
           <t>ROAD COMERCIO E SERVICOS EIRELI</t>
         </is>
       </c>
-      <c r="J26" s="7" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>ESTADO DE RONDONIA</t>
         </is>
       </c>
-      <c r="K26" s="7" t="inlineStr">
+      <c r="K26" s="3" t="inlineStr">
         <is>
           <t>926002 - DEPARTAMENTO ESTADUAL DE TRÂNSITO</t>
         </is>
       </c>
-      <c r="L26" s="7" t="inlineStr">
+      <c r="L26" s="3" t="inlineStr">
         <is>
           <t>24/11/2020</t>
         </is>
       </c>
-    </row>
-    <row r="27" ht="14.4" customHeight="1" s="4">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="M26" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>00039/2020</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>00018</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>2.374</t>
         </is>
       </c>
-      <c r="H27" s="7" t="inlineStr">
+      <c r="H27" s="3" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="3" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J27" s="7" t="inlineStr">
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K27" s="7" t="inlineStr">
+      <c r="K27" s="3" t="inlineStr">
         <is>
           <t>784810 - CENTRO DE INTENDENCIA DA MARINHA EM BELEM</t>
         </is>
       </c>
-      <c r="L27" s="7" t="inlineStr">
+      <c r="L27" s="3" t="inlineStr">
         <is>
           <t>09/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="28" ht="14.4" customHeight="1" s="4">
-      <c r="A28" s="7" t="inlineStr">
+      <c r="M27" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>00007/2020</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>00006</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>1.860</t>
         </is>
       </c>
-      <c r="H28" s="7" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I28" s="7" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J28" s="7" t="inlineStr">
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K28" s="7" t="inlineStr">
+      <c r="K28" s="3" t="inlineStr">
         <is>
           <t>160526 - 3 COMPANHIA DE ENGENHARIA DE COMB.MECAN./RS</t>
         </is>
       </c>
-      <c r="L28" s="7" t="inlineStr">
+      <c r="L28" s="3" t="inlineStr">
         <is>
           <t>28/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="29" ht="14.4" customHeight="1" s="4">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="M28" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>00007/2020</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>00088</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>6.880</t>
         </is>
       </c>
-      <c r="H29" s="7" t="inlineStr">
+      <c r="H29" s="3" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="I29" s="3" t="inlineStr">
         <is>
           <t>R E LIMPEZA E CONSERVACAO LTDA</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K29" s="7" t="inlineStr">
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>160011 - 4 DIVISAO DE LEVANTAMENTO/MEX/AM</t>
         </is>
       </c>
-      <c r="L29" s="7" t="inlineStr">
+      <c r="L29" s="3" t="inlineStr">
         <is>
           <t>21/12/2020</t>
         </is>
       </c>
-    </row>
-    <row r="30" ht="14.4" customHeight="1" s="4">
-      <c r="A30" s="7" t="inlineStr">
+      <c r="M29" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>00037</t>
         </is>
       </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G30" s="7" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="H30" s="7" t="inlineStr">
+      <c r="H30" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I30" s="7" t="inlineStr">
+      <c r="I30" s="3" t="inlineStr">
         <is>
           <t>MARY DUDA COMERCIO DE MATERIAL PARA CONSTRUCAO E SERVICOS DE DECORACAO EIRELI</t>
         </is>
       </c>
-      <c r="J30" s="7" t="inlineStr">
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K30" s="7" t="inlineStr">
+      <c r="K30" s="3" t="inlineStr">
         <is>
           <t>160066 - COMISSAO REGIONAL DE OBRAS/11-MEX/DF</t>
         </is>
       </c>
-      <c r="L30" s="7" t="inlineStr">
+      <c r="L30" s="3" t="inlineStr">
         <is>
           <t>02/06/2021</t>
         </is>
       </c>
-    </row>
-    <row r="31" ht="14.4" customHeight="1" s="4">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="M30" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>00013/2020</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G31" s="7" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="H31" s="7" t="inlineStr">
+      <c r="H31" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="I31" s="3" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>CONSELHO FEDERAL DE ENGENHARIA E AGRONOMIA</t>
         </is>
       </c>
-      <c r="K31" s="7" t="inlineStr">
+      <c r="K31" s="3" t="inlineStr">
         <is>
           <t>927163 - CONSELHO REG. DE ENG. AGRON. DO EST. SERGIPE</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="3" t="inlineStr">
         <is>
           <t>28/07/2020</t>
         </is>
       </c>
-    </row>
-    <row r="32" ht="14.4" customHeight="1" s="4">
-      <c r="A32" s="7" t="inlineStr">
+      <c r="M31" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>00047/2020</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>00022</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G32" s="7" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>11.800</t>
         </is>
       </c>
-      <c r="H32" s="7" t="inlineStr">
+      <c r="H32" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I32" s="7" t="inlineStr">
+      <c r="I32" s="3" t="inlineStr">
         <is>
           <t>H. S. NEVES JUNIOR</t>
         </is>
       </c>
-      <c r="J32" s="7" t="inlineStr">
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K32" s="7" t="inlineStr">
+      <c r="K32" s="3" t="inlineStr">
         <is>
           <t>160482 - 1A. BRIGADA DE INFANTARIA DE SELVA/RR</t>
         </is>
       </c>
-      <c r="L32" s="7" t="inlineStr">
+      <c r="L32" s="3" t="inlineStr">
         <is>
           <t>25/02/2021</t>
         </is>
       </c>
-    </row>
-    <row r="33" ht="14.4" customHeight="1" s="4">
-      <c r="A33" s="7" t="inlineStr">
+      <c r="M32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B33" s="7" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>1.800</t>
         </is>
       </c>
-      <c r="H33" s="7" t="inlineStr">
+      <c r="H33" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I33" s="7" t="inlineStr">
+      <c r="I33" s="3" t="inlineStr">
         <is>
           <t>T. C. C. DE A. FERREIRA COMERCIO E SERVICO</t>
         </is>
       </c>
-      <c r="J33" s="7" t="inlineStr">
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K33" s="7" t="inlineStr">
+      <c r="K33" s="3" t="inlineStr">
         <is>
           <t>160482 - 1A. BRIGADA DE INFANTARIA DE SELVA/RR</t>
         </is>
       </c>
-      <c r="L33" s="7" t="inlineStr">
+      <c r="L33" s="3" t="inlineStr">
         <is>
           <t>04/03/2021</t>
         </is>
       </c>
-    </row>
-    <row r="34" ht="14.4" customHeight="1" s="4">
-      <c r="A34" s="7" t="inlineStr">
+      <c r="M33" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>00030/2020</t>
         </is>
       </c>
-      <c r="B34" s="7" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>00016</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G34" s="7" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>1.400</t>
         </is>
       </c>
-      <c r="H34" s="7" t="inlineStr">
+      <c r="H34" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I34" s="7" t="inlineStr">
+      <c r="I34" s="3" t="inlineStr">
         <is>
           <t>PLASTIFIK LTDA</t>
         </is>
       </c>
-      <c r="J34" s="7" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
         </is>
       </c>
-      <c r="K34" s="7" t="inlineStr">
+      <c r="K34" s="3" t="inlineStr">
         <is>
           <t>155012 - HOSPITAL U. CASSIANO ANTONIO DE MORAIS</t>
         </is>
       </c>
-      <c r="L34" s="7" t="inlineStr">
+      <c r="L34" s="3" t="inlineStr">
         <is>
           <t>04/09/2020</t>
         </is>
       </c>
-    </row>
-    <row r="35" ht="14.4" customHeight="1" s="4">
-      <c r="A35" s="7" t="inlineStr">
+      <c r="M34" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>00017/2020</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>00017</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="H35" s="7" t="inlineStr">
+      <c r="H35" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="I35" s="3" t="inlineStr">
         <is>
           <t>PRIME DISTRIBUIDORA DE MATERIAL DE ESCRITORIO E LIMPEZA LTDA</t>
         </is>
       </c>
-      <c r="J35" s="7" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K35" s="7" t="inlineStr">
+      <c r="K35" s="3" t="inlineStr">
         <is>
           <t>120073 - MAER - BASE AEREA DE FLORIANOPOLIS - SC</t>
         </is>
       </c>
-      <c r="L35" s="7" t="inlineStr">
+      <c r="L35" s="3" t="inlineStr">
         <is>
           <t>21/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="36" ht="14.4" customHeight="1" s="4">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="M35" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>00042/2020</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>00037</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F36" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G36" s="7" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H36" s="7" t="inlineStr">
+      <c r="H36" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I36" s="7" t="inlineStr">
+      <c r="I36" s="3" t="inlineStr">
         <is>
           <t>INTERBRINQ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J36" s="7" t="inlineStr">
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>MINISTERIO DA SAUDE</t>
         </is>
       </c>
-      <c r="K36" s="7" t="inlineStr">
+      <c r="K36" s="3" t="inlineStr">
         <is>
           <t>250059 - INSTITUTO NACIONAL DE CARDIOLOGIA</t>
         </is>
       </c>
-      <c r="L36" s="7" t="inlineStr">
+      <c r="L36" s="3" t="inlineStr">
         <is>
           <t>05/03/2021</t>
         </is>
       </c>
-    </row>
-    <row r="37" ht="14.4" customHeight="1" s="4">
-      <c r="A37" s="7" t="inlineStr">
+      <c r="M36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>00019/2020</t>
         </is>
       </c>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>00021</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F37" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>8.000</t>
         </is>
       </c>
-      <c r="H37" s="7" t="inlineStr">
+      <c r="H37" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I37" s="7" t="inlineStr">
+      <c r="I37" s="3" t="inlineStr">
         <is>
           <t>SLIM SUPRIMENTOS LTDA</t>
         </is>
       </c>
-      <c r="J37" s="7" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K37" s="7" t="inlineStr">
+      <c r="K37" s="3" t="inlineStr">
         <is>
           <t>120016 - GRUPAMENTO DE APOIO DE SÃO JOSÉ DOS CAMPOS</t>
         </is>
       </c>
-      <c r="L37" s="7" t="inlineStr">
+      <c r="L37" s="3" t="inlineStr">
         <is>
           <t>31/08/2020</t>
         </is>
       </c>
-    </row>
-    <row r="38" ht="14.4" customHeight="1" s="4">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="M37" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>00024/2020</t>
         </is>
       </c>
-      <c r="B38" s="7" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>00059</t>
         </is>
       </c>
-      <c r="C38" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E38" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F38" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G38" s="7" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="H38" s="7" t="inlineStr">
+      <c r="H38" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I38" s="7" t="inlineStr">
+      <c r="I38" s="3" t="inlineStr">
         <is>
           <t>SCHNEIDER CONSULTORIA EIRELI</t>
         </is>
       </c>
-      <c r="J38" s="7" t="inlineStr">
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K38" s="7" t="inlineStr">
+      <c r="K38" s="3" t="inlineStr">
         <is>
           <t>771280 - CENTRO DE MUNICAO DA MARINHA</t>
         </is>
       </c>
-      <c r="L38" s="7" t="inlineStr">
+      <c r="L38" s="3" t="inlineStr">
         <is>
           <t>11/08/2020</t>
         </is>
       </c>
-    </row>
-    <row r="39" ht="14.4" customHeight="1" s="4">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="M38" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>00006/2019</t>
         </is>
       </c>
-      <c r="B39" s="7" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>00019</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E39" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F39" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G39" s="7" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>3.360</t>
         </is>
       </c>
-      <c r="H39" s="7" t="inlineStr">
+      <c r="H39" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="I39" s="3" t="inlineStr">
         <is>
           <t>UNIAGRO RORAIMA EMPREENDIMENTOS EIRELI</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="K39" s="3" t="inlineStr">
         <is>
           <t>160352 - COMANDO DE FRONT.-RR E 7.BAT.DE INF.DE SELVA</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
+      <c r="L39" s="3" t="inlineStr">
         <is>
           <t>17/07/2020</t>
         </is>
       </c>
-    </row>
-    <row r="40" ht="14.4" customHeight="1" s="4">
-      <c r="A40" s="7" t="inlineStr">
+      <c r="M39" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>00008/2021</t>
         </is>
       </c>
-      <c r="B40" s="7" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>00002</t>
         </is>
       </c>
-      <c r="C40" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G40" s="7" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="H40" s="7" t="inlineStr">
+      <c r="H40" s="3" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I40" s="7" t="inlineStr">
+      <c r="I40" s="3" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J40" s="7" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>MINISTERIO DA SAUDE</t>
         </is>
       </c>
-      <c r="K40" s="7" t="inlineStr">
+      <c r="K40" s="3" t="inlineStr">
         <is>
           <t>257023 - DISTRITO SANIT.ESP.INDÍGENA AL/SE</t>
         </is>
       </c>
-      <c r="L40" s="7" t="inlineStr">
+      <c r="L40" s="3" t="inlineStr">
         <is>
           <t>07/04/2021</t>
         </is>
       </c>
-    </row>
-    <row r="41" ht="14.4" customHeight="1" s="4">
-      <c r="A41" s="7" t="inlineStr">
+      <c r="M40" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>00003/2020</t>
         </is>
       </c>
-      <c r="B41" s="7" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>00055</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E41" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F41" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G41" s="7" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="H41" s="7" t="inlineStr">
+      <c r="H41" s="3" t="inlineStr">
         <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="I41" s="7" t="inlineStr">
+      <c r="I41" s="3" t="inlineStr">
         <is>
           <t>SUPRY OFFICE DISTRIBUIDORA DE MATERIAIS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
+      <c r="K41" s="3" t="inlineStr">
         <is>
           <t>160317 - ESCOLA DE INSTRUCAO ESPECIALIZADA/RJ</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="L41" s="3" t="inlineStr">
         <is>
           <t>01/07/2021</t>
         </is>
       </c>
-    </row>
-    <row r="42" ht="14.4" customHeight="1" s="4">
-      <c r="A42" s="7" t="inlineStr">
+      <c r="M41" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B42" s="7" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>00024</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D42" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E42" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F42" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G42" s="7" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>775</t>
         </is>
       </c>
-      <c r="H42" s="7" t="inlineStr">
+      <c r="H42" s="3" t="inlineStr">
         <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="I42" s="7" t="inlineStr">
+      <c r="I42" s="3" t="inlineStr">
         <is>
           <t>R G XAVIER GUIMARAES EIRELI</t>
         </is>
       </c>
-      <c r="J42" s="7" t="inlineStr">
+      <c r="J42" s="3" t="inlineStr">
         <is>
           <t>MINISTERIO DA SAUDE</t>
         </is>
       </c>
-      <c r="K42" s="7" t="inlineStr">
+      <c r="K42" s="3" t="inlineStr">
         <is>
           <t>257052 - DISTRITO SANIT.ESP.INDÍGENA - YANOMAMI</t>
         </is>
       </c>
-      <c r="L42" s="7" t="inlineStr">
+      <c r="L42" s="3" t="inlineStr">
         <is>
           <t>22/03/2021</t>
         </is>
       </c>
-    </row>
-    <row r="43" ht="14.4" customHeight="1" s="4">
-      <c r="A43" s="7" t="inlineStr">
+      <c r="M42" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>00034/2020</t>
         </is>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>00006</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D43" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E43" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F43" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G43" s="7" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>4.700</t>
         </is>
       </c>
-      <c r="H43" s="7" t="inlineStr">
+      <c r="H43" s="3" t="inlineStr">
         <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="I43" s="7" t="inlineStr">
+      <c r="I43" s="3" t="inlineStr">
         <is>
           <t>RAFA PAPER DISTRIBUIDORA EIRELI</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
+      <c r="J43" s="3" t="inlineStr">
         <is>
           <t>JUSTICA FEDERAL</t>
         </is>
       </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="K43" s="3" t="inlineStr">
         <is>
           <t>090027 - TRIBUNAL REGIONAL FEDERAL-SEC.1A.REG./DF</t>
         </is>
       </c>
-      <c r="L43" s="7" t="inlineStr">
+      <c r="L43" s="3" t="inlineStr">
         <is>
           <t>03/12/2020</t>
         </is>
       </c>
-    </row>
-    <row r="44" ht="14.4" customHeight="1" s="4">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="M43" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>00008/2020</t>
         </is>
       </c>
-      <c r="B44" s="7" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>00007</t>
         </is>
       </c>
-      <c r="C44" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D44" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E44" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G44" s="7" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H44" s="7" t="inlineStr">
+      <c r="H44" s="3" t="inlineStr">
         <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="I44" s="7" t="inlineStr">
+      <c r="I44" s="3" t="inlineStr">
         <is>
           <t>RAFA PAPER DISTRIBUIDORA EIRELI</t>
         </is>
       </c>
-      <c r="J44" s="7" t="inlineStr">
+      <c r="J44" s="3" t="inlineStr">
         <is>
           <t>DISTRITO FEDERAL</t>
         </is>
       </c>
-      <c r="K44" s="7" t="inlineStr">
+      <c r="K44" s="3" t="inlineStr">
         <is>
           <t>925046 - COMPANHIA DO METROPOLITANO DO DIST. FEDERAL</t>
         </is>
       </c>
-      <c r="L44" s="7" t="inlineStr">
+      <c r="L44" s="3" t="inlineStr">
         <is>
           <t>09/12/2020</t>
         </is>
       </c>
-    </row>
-    <row r="45" ht="14.4" customHeight="1" s="4">
-      <c r="A45" s="7" t="inlineStr">
+      <c r="M44" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>00023/2020</t>
         </is>
       </c>
-      <c r="B45" s="7" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>00071</t>
         </is>
       </c>
-      <c r="C45" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D45" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E45" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F45" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G45" s="7" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>1.182</t>
         </is>
       </c>
-      <c r="H45" s="7" t="inlineStr">
+      <c r="H45" s="3" t="inlineStr">
         <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="I45" s="7" t="inlineStr">
+      <c r="I45" s="3" t="inlineStr">
         <is>
           <t>INTERBRINQ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J45" s="7" t="inlineStr">
+      <c r="J45" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K45" s="7" t="inlineStr">
+      <c r="K45" s="3" t="inlineStr">
         <is>
           <t>795380 - BASE DE FUZILEIROS NAVAIS DA ILHA DAS FLORES</t>
         </is>
       </c>
-      <c r="L45" s="7" t="inlineStr">
+      <c r="L45" s="3" t="inlineStr">
         <is>
           <t>06/01/2021</t>
         </is>
       </c>
-    </row>
-    <row r="46" ht="14.4" customHeight="1" s="4">
-      <c r="A46" s="7" t="inlineStr">
+      <c r="M45" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>00104/2020</t>
         </is>
       </c>
-      <c r="B46" s="7" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>00003</t>
         </is>
       </c>
-      <c r="C46" s="7" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Dispensa de Licitação</t>
         </is>
       </c>
-      <c r="D46" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E46" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F46" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G46" s="7" t="inlineStr">
+      <c r="D46" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="H46" s="7" t="inlineStr">
+      <c r="H46" s="3" t="inlineStr">
         <is>
           <t>0,8333</t>
         </is>
       </c>
-      <c r="I46" s="7" t="inlineStr">
+      <c r="I46" s="3" t="inlineStr">
         <is>
           <t>BAMBOLE EDITORA E LIVRARIA LTDA</t>
         </is>
       </c>
-      <c r="J46" s="7" t="inlineStr">
+      <c r="J46" s="3" t="inlineStr">
         <is>
           <t>UNIVERSIDADE FEDERAL DO RIO DE JANEIRO</t>
         </is>
       </c>
-      <c r="K46" s="7" t="inlineStr">
+      <c r="K46" s="3" t="inlineStr">
         <is>
           <t>153149 - MEC-INSTITUTO DE PSIQUIATRIA DA UF/RJ</t>
         </is>
       </c>
-      <c r="L46" s="7" t="inlineStr">
+      <c r="L46" s="3" t="inlineStr">
         <is>
           <t>15/10/2020</t>
         </is>
       </c>
-    </row>
-    <row r="47" ht="14.4" customHeight="1" s="4">
-      <c r="A47" s="7" t="inlineStr">
+      <c r="M46" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>00005/2020</t>
         </is>
       </c>
-      <c r="B47" s="7" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>00015</t>
         </is>
       </c>
-      <c r="C47" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D47" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E47" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F47" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G47" s="7" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="H47" s="7" t="inlineStr">
+      <c r="H47" s="3" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I47" s="7" t="inlineStr">
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>SLIM SUPRIMENTOS LTDA</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="J47" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K47" s="7" t="inlineStr">
+      <c r="K47" s="3" t="inlineStr">
         <is>
           <t>711000 - GABINETE DO COMANDANTE DA MARINHA</t>
         </is>
       </c>
-      <c r="L47" s="7" t="inlineStr">
+      <c r="L47" s="3" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-    </row>
-    <row r="48" ht="14.4" customHeight="1" s="4">
-      <c r="A48" s="7" t="inlineStr">
+      <c r="M47" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>00004/2020</t>
         </is>
       </c>
-      <c r="B48" s="7" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="C48" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D48" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E48" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F48" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G48" s="7" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
         <is>
           <t>1.150</t>
         </is>
       </c>
-      <c r="H48" s="7" t="inlineStr">
+      <c r="H48" s="3" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I48" s="7" t="inlineStr">
+      <c r="I48" s="3" t="inlineStr">
         <is>
           <t>DIGITAL PAPELARIA E INFORMATICA  EIRELI</t>
         </is>
       </c>
-      <c r="J48" s="7" t="inlineStr">
+      <c r="J48" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K48" s="7" t="inlineStr">
+      <c r="K48" s="3" t="inlineStr">
         <is>
           <t>763000 - DIRET.DO PESSOAL CIVIL DA MARINHA/DF</t>
         </is>
       </c>
-      <c r="L48" s="7" t="inlineStr">
+      <c r="L48" s="3" t="inlineStr">
         <is>
           <t>12/03/2021</t>
         </is>
       </c>
-    </row>
-    <row r="49" ht="14.4" customHeight="1" s="4">
-      <c r="A49" s="7" t="inlineStr">
+      <c r="M48" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>00025/2020</t>
         </is>
       </c>
-      <c r="B49" s="7" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>00037</t>
         </is>
       </c>
-      <c r="C49" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D49" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E49" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F49" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G49" s="7" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>3.048</t>
         </is>
       </c>
-      <c r="H49" s="7" t="inlineStr">
+      <c r="H49" s="3" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I49" s="7" t="inlineStr">
+      <c r="I49" s="3" t="inlineStr">
         <is>
           <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
         </is>
       </c>
-      <c r="J49" s="7" t="inlineStr">
+      <c r="J49" s="3" t="inlineStr">
         <is>
           <t>INST.FED.DE EDUC.,CIE.E TEC.SUL-RIO-GRANDENSE</t>
         </is>
       </c>
-      <c r="K49" s="7" t="inlineStr">
+      <c r="K49" s="3" t="inlineStr">
         <is>
           <t>158126 - INST.FED.SUL R.GRANDENSE</t>
         </is>
       </c>
-      <c r="L49" s="7" t="inlineStr">
+      <c r="L49" s="3" t="inlineStr">
         <is>
           <t>22/04/2021</t>
         </is>
       </c>
-    </row>
-    <row r="50" ht="14.4" customHeight="1" s="4">
-      <c r="A50" s="7" t="inlineStr">
+      <c r="M49" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>00074/2020</t>
         </is>
       </c>
-      <c r="B50" s="7" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>00022</t>
         </is>
       </c>
-      <c r="C50" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D50" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E50" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F50" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G50" s="7" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H50" s="7" t="inlineStr">
+      <c r="H50" s="3" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I50" s="7" t="inlineStr">
+      <c r="I50" s="3" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J50" s="7" t="inlineStr">
+      <c r="J50" s="3" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K50" s="7" t="inlineStr">
+      <c r="K50" s="3" t="inlineStr">
         <is>
           <t>120635 - GRUPAMENTO DE APOIO DO GUARATINGUETÁ</t>
         </is>
       </c>
-      <c r="L50" s="7" t="inlineStr">
+      <c r="L50" s="3" t="inlineStr">
         <is>
           <t>10/09/2020</t>
         </is>
       </c>
-    </row>
-    <row r="51" ht="14.4" customHeight="1" s="4">
-      <c r="A51" s="7" t="inlineStr">
+      <c r="M50" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>01050/2020</t>
         </is>
       </c>
-      <c r="B51" s="7" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>00014</t>
         </is>
       </c>
-      <c r="C51" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D51" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E51" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F51" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G51" s="7" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="H51" s="7" t="inlineStr">
+      <c r="H51" s="3" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I51" s="7" t="inlineStr">
+      <c r="I51" s="3" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J51" s="7" t="inlineStr">
+      <c r="J51" s="3" t="inlineStr">
         <is>
           <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
         </is>
       </c>
-      <c r="K51" s="7" t="inlineStr">
+      <c r="K51" s="3" t="inlineStr">
         <is>
           <t>155911 - HOSPITAL UNIVERSITÁRIO GAFFRÉE E GUINLE</t>
         </is>
       </c>
-      <c r="L51" s="7" t="inlineStr">
+      <c r="L51" s="3" t="inlineStr">
         <is>
           <t>07/12/2020</t>
         </is>
       </c>
-    </row>
-    <row r="52" ht="14.4" customHeight="1" s="4">
-      <c r="A52" s="7" t="inlineStr">
+      <c r="M51" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>00055/2020</t>
         </is>
       </c>
-      <c r="B52" s="7" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>00004</t>
         </is>
       </c>
-      <c r="C52" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D52" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E52" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F52" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G52" s="7" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H52" s="7" t="inlineStr">
+      <c r="H52" s="3" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I52" s="7" t="inlineStr">
+      <c r="I52" s="3" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J52" s="7" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
         <is>
           <t>JUSTICA FEDERAL</t>
         </is>
       </c>
-      <c r="K52" s="7" t="inlineStr">
+      <c r="K52" s="3" t="inlineStr">
         <is>
           <t>090028 - TRIBUNAL REGIONAL FEDERAL DA 2A. REGIAO</t>
         </is>
       </c>
-      <c r="L52" s="7" t="inlineStr">
+      <c r="L52" s="3" t="inlineStr">
         <is>
           <t>27/11/2020</t>
         </is>
       </c>
-    </row>
-    <row r="53" ht="14.4" customHeight="1" s="4">
-      <c r="A53" s="7" t="inlineStr">
+      <c r="M52" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>00004/2020</t>
         </is>
       </c>
-      <c r="B53" s="7" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="C53" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D53" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E53" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F53" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G53" s="7" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="H53" s="7" t="inlineStr">
+      <c r="H53" s="3" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I53" s="7" t="inlineStr">
+      <c r="I53" s="3" t="inlineStr">
         <is>
           <t>M L P COSTA</t>
         </is>
       </c>
-      <c r="J53" s="7" t="inlineStr">
+      <c r="J53" s="3" t="inlineStr">
         <is>
           <t>ESTADO DE RORAIMA</t>
         </is>
       </c>
-      <c r="K53" s="7" t="inlineStr">
+      <c r="K53" s="3" t="inlineStr">
         <is>
           <t>926196 - PROCURADORIA GERAL DE JUSTIÇA DO ESTADO DE RR</t>
         </is>
       </c>
-      <c r="L53" s="7" t="inlineStr">
+      <c r="L53" s="3" t="inlineStr">
         <is>
           <t>03/09/2020</t>
         </is>
       </c>
-    </row>
-    <row r="54" ht="14.4" customHeight="1" s="4">
-      <c r="A54" s="7" t="inlineStr">
+      <c r="M53" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>00013/2020</t>
         </is>
       </c>
-      <c r="B54" s="7" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>00009</t>
         </is>
       </c>
-      <c r="C54" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D54" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E54" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F54" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G54" s="7" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>10.490</t>
         </is>
       </c>
-      <c r="H54" s="7" t="inlineStr">
+      <c r="H54" s="3" t="inlineStr">
         <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="I54" s="7" t="inlineStr">
+      <c r="I54" s="3" t="inlineStr">
         <is>
           <t>SUPRY OFFICE DISTRIBUIDORA DE MATERIAIS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J54" s="7" t="inlineStr">
+      <c r="J54" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K54" s="7" t="inlineStr">
+      <c r="K54" s="3" t="inlineStr">
         <is>
           <t>160303 - BASE DE ADMINIST. E APOIO DA 1ª REG. MILITAR</t>
         </is>
       </c>
-      <c r="L54" s="7" t="inlineStr">
+      <c r="L54" s="3" t="inlineStr">
         <is>
           <t>11/03/2021</t>
         </is>
       </c>
-    </row>
-    <row r="55" ht="14.4" customHeight="1" s="4">
-      <c r="A55" s="7" t="inlineStr">
+      <c r="M54" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>00014/2019</t>
         </is>
       </c>
-      <c r="B55" s="7" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>00009</t>
         </is>
       </c>
-      <c r="C55" s="7" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D55" s="7" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E55" s="7" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F55" s="7" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G55" s="7" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>53.846</t>
         </is>
       </c>
-      <c r="H55" s="7" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr">
         <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="I55" s="7" t="inlineStr">
+      <c r="I55" s="3" t="inlineStr">
         <is>
           <t>R TECH COMERCIO E SERVICOS DISTRIBUIDORA EIRELI</t>
         </is>
       </c>
-      <c r="J55" s="7" t="inlineStr">
+      <c r="J55" s="3" t="inlineStr">
         <is>
           <t>INSTITUTO NACIONAL DO SEGURO SOCIAL</t>
         </is>
       </c>
-      <c r="K55" s="7" t="inlineStr">
+      <c r="K55" s="3" t="inlineStr">
         <is>
           <t>512006 - COORDENACAO GERAL DE LICITACOES E CONTRATOS</t>
         </is>
       </c>
-      <c r="L55" s="7" t="inlineStr">
+      <c r="L55" s="3" t="inlineStr">
         <is>
           <t>20/11/2020</t>
         </is>
       </c>
-    </row>
+      <c r="M55" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56"/>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>Média</t>
         </is>
       </c>
-      <c r="B57" s="8" t="n">
+      <c r="B57" s="4" t="n">
+        <v>0.7673395833333333</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>Desvio</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>0.1194391285178324</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Coeficiente</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>0.1556535478060278</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Mediana</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>0.7673395833333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tipo painel:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MATERIAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Quantidade total de registros:</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Registros apresentados:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>51 a 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Filtros:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descrição :  CANETA MARCA-TEXTO\, MATERIAL:PLÁSTICO\, TIPO PONTA:FLUORESCENTE\, COR:AMARELA </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ano da Compra :  2020, 2021 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Identificação da Compra</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Número do Item</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Modalidade</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Código do CATMAT</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Unidade de Fornecimento</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade Ofertada</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Valor Unitário</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>Fornecedor</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Órgão</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>UASG - Unidade Gestora</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>Data da Compra</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>Item Ativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>00003/2020</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>00013</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P1</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>0,089</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>L.H. DE SOUZA FREITAS</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>CONSELHO FEDERAL DE QUIMICA</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>389260 - CONSELHO FEDERAL DE QUIMICA</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>15/07/2020</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>00001/2021</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>00031</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>CAIXA 12,00 UN</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>1.300</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>0,109</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>ESTADO DO RIO GRANDE DO SUL</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>988815 - PREF.MUNICIPAL DO RIO GRANDE/RS</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>02/06/2021</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>00021/2020</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>00040</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>SOUZA E FRAGATA SERVICOS DE REFORMAS, MANUTENCAO, LIMPEZA E CONSERVACAO PREDIAL</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>160537 - COMANDO 16A BRIGADA DE INFANT.DE SELVA/MEX/AM</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>06/10/2020</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>00015/2020</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>00041</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P2</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>4.954</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>AAZ COMERCIAL EIRELI</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>160186 - BASE DE ADMINISTRAçãO DO QGEX</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>26/02/2021</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>00050/2020</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>00012</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>DGW BRASIL EIRELI</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE FEDERAL DO PARANA</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>153079 - UNIVERSIDADE FEDERAL DO PARANA</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>16/07/2020</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>00011/2020</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>00008</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P3</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>PINHO COMERCIO DE PRODUTOS SANEANTES EIRELI</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>FUNDACAO UNIVERSIDADE DO AMAZONAS</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>154039 - FUNDACAO UNIVERSIDADE DO AMAZONAS/AM</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11/09/2020</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>00013/2020</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>00017</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>5.000</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>0,70</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>160448 - 5 BATALHAO DE ENGENHARIA DE COMBATE</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>30/10/2020</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>00005/2020</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>00054</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>2.700</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>160428 - 2 REGIMENTO DE CAVALARIA MECANIZADO/RS</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2020</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>00020/2020</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>00364</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA AERONAUTICA</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>120669 - BASE AéREA DE SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>25/09/2020</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>00020/2020</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>00029</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P4</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4.000</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>FUNDACAO UNIVERSIDADE FED. DA GRANDE DOURADOS</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>154502 - FUNDAÇÃO UNIV. FEDERAL DA GRANDE DOURADOS</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31/08/2020</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>00016/2019</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>LADO C COMERCIO E IMPORTACAO HOME OFFICE EIRELI</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>ESTADO DE RONDONIA</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>926002 - DEPARTAMENTO ESTADUAL DE TRÂNSITO</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>21/08/2020</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>00044/2019</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>00013</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>BRITO E FARIAS COMERCIO DE ARTIGOS DE PAPELARIA LTDA</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>155023 - HOSPITAL UNIVERSITÁRIO LAURO WANDERLEY</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>12/02/2021</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>00020/2020</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>00038</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>5.607</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA AERONAUTICA</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>120669 - BASE AéREA DE SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>25/09/2020</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>00006/2020</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>PRINTSUL COMERCIO ATACADISTA LTDA</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>DEPARTAMENTO DE POLICIA FEDERAL</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>200370 - SUPERINTENDENCIA REG.DEP.POLICIA FEDERAL - SC</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2020</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>00006/2020</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>00019</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>FUNDACAO OSWALDO CRUZ</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>254422 - CENTRO DE PESQUISAS GONCALO MUNIZ - FIOCRUZ</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>13/08/2020</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>00003/2021</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>ARARIPE COMERCIO E LOCACOES LTDA</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>ESTADO DA BAHIA</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>983045 - PREFEITURA MUNICIPAL DE SOBRADINHO/BA</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>15/02/2021</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>00001/2021</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICA E EDITORA LUAR EIRELI</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>160004 - 59  BATALHAO DE INFANTARIA MOTORIZADO/AL</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>30/03/2021</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>00060/2020</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>00020</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>BAZAR E PAPELARIA MN LTDA</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>160291 - CENTRO TECNOLOGICO DO EXERCITO/RJ</t>
+        </is>
+      </c>
+      <c r="L23" s="3" t="inlineStr">
+        <is>
+          <t>13/07/2020</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>00003/2021</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>00104</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>5.790</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>R G XAVIER GUIMARAES EIRELI</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>160016 - COMANDO DO COMANDO MILITAR DA AMAZONIA/MEX/AM</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>23/06/2021</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>00055/2020</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>00015</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>BRITO E FARIAS COMERCIO DE ARTIGOS DE PAPELARIA LTDA</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>160339 - 1 BATALHAO DE ENGENHARIA DE CONSTRUCAO</t>
+        </is>
+      </c>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>02/10/2020</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>00015/2020</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>ROAD COMERCIO E SERVICOS EIRELI</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>ESTADO DE RONDONIA</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>926002 - DEPARTAMENTO ESTADUAL DE TRÂNSITO</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>24/11/2020</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>00039/2020</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>00018</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>2.374</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA MARINHA</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>784810 - CENTRO DE INTENDENCIA DA MARINHA EM BELEM</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t>09/10/2020</t>
+        </is>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>00007/2020</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>1.860</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>160526 - 3 COMPANHIA DE ENGENHARIA DE COMB.MECAN./RS</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>28/10/2020</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>00007/2020</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>00088</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>6.880</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>R E LIMPEZA E CONSERVACAO LTDA</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>160011 - 4 DIVISAO DE LEVANTAMENTO/MEX/AM</t>
+        </is>
+      </c>
+      <c r="L29" s="3" t="inlineStr">
+        <is>
+          <t>21/12/2020</t>
+        </is>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>00003/2021</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>00037</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>MARY DUDA COMERCIO DE MATERIAL PARA CONSTRUCAO E SERVICOS DE DECORACAO EIRELI</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>160066 - COMISSAO REGIONAL DE OBRAS/11-MEX/DF</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>02/06/2021</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>00013/2020</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>00011</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>CONSELHO FEDERAL DE ENGENHARIA E AGRONOMIA</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>927163 - CONSELHO REG. DE ENG. AGRON. DO EST. SERGIPE</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>28/07/2020</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>00047/2020</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>00022</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>11.800</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>H. S. NEVES JUNIOR</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>160482 - 1A. BRIGADA DE INFANTARIA DE SELVA/RR</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>25/02/2021</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>00015/2020</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>00100</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>1.800</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>T. C. C. DE A. FERREIRA COMERCIO E SERVICO</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>160482 - 1A. BRIGADA DE INFANTARIA DE SELVA/RR</t>
+        </is>
+      </c>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>04/03/2021</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>00030/2020</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>00016</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>1.400</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>PLASTIFIK LTDA</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>155012 - HOSPITAL U. CASSIANO ANTONIO DE MORAIS</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>04/09/2020</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>00017/2020</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>00017</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>PRIME DISTRIBUIDORA DE MATERIAL DE ESCRITORIO E LIMPEZA LTDA</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA AERONAUTICA</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>120073 - MAER - BASE AEREA DE FLORIANOPOLIS - SC</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>21/10/2020</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>00042/2020</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>00037</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>INTERBRINQ COMERCIAL EIRELI</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>MINISTERIO DA SAUDE</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>250059 - INSTITUTO NACIONAL DE CARDIOLOGIA</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>05/03/2021</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>00019/2020</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>00021</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>8.000</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>SLIM SUPRIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA AERONAUTICA</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>120016 - GRUPAMENTO DE APOIO DE SÃO JOSÉ DOS CAMPOS</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>31/08/2020</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>00024/2020</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>00059</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>SCHNEIDER CONSULTORIA EIRELI</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA MARINHA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>771280 - CENTRO DE MUNICAO DA MARINHA</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>11/08/2020</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>00006/2019</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>00019</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>3.360</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>UNIAGRO RORAIMA EMPREENDIMENTOS EIRELI</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>160352 - COMANDO DE FRONT.-RR E 7.BAT.DE INF.DE SELVA</t>
+        </is>
+      </c>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>17/07/2020</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>00008/2021</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MINISTERIO DA SAUDE</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>257023 - DISTRITO SANIT.ESP.INDÍGENA AL/SE</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>00003/2020</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>00055</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>SUPRY OFFICE DISTRIBUIDORA DE MATERIAIS E SERVICOS LTDA</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>160317 - ESCOLA DE INSTRUCAO ESPECIALIZADA/RJ</t>
+        </is>
+      </c>
+      <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>00015/2020</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>00024</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>R G XAVIER GUIMARAES EIRELI</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>MINISTERIO DA SAUDE</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>257052 - DISTRITO SANIT.ESP.INDÍGENA - YANOMAMI</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>22/03/2021</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>00034/2020</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>4.700</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>RAFA PAPER DISTRIBUIDORA EIRELI</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>JUSTICA FEDERAL</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>090027 - TRIBUNAL REGIONAL FEDERAL-SEC.1A.REG./DF</t>
+        </is>
+      </c>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>03/12/2020</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>00008/2020</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>00007</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>RAFA PAPER DISTRIBUIDORA EIRELI</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>DISTRITO FEDERAL</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>925046 - COMPANHIA DO METROPOLITANO DO DIST. FEDERAL</t>
+        </is>
+      </c>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2020</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>00023/2020</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>00071</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>1.182</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>INTERBRINQ COMERCIAL EIRELI</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA MARINHA</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>795380 - BASE DE FUZILEIROS NAVAIS DA ILHA DAS FLORES</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2021</t>
+        </is>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>00104/2020</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>00003</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>0,8333</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>BAMBOLE EDITORA E LIVRARIA LTDA</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE FEDERAL DO RIO DE JANEIRO</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>153149 - MEC-INSTITUTO DE PSIQUIATRIA DA UF/RJ</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2020</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>00005/2020</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>00015</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>SLIM SUPRIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA MARINHA</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>711000 - GABINETE DO COMANDANTE DA MARINHA</t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>31/03/2021</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>00004/2020</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>1.150</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>DIGITAL PAPELARIA E INFORMATICA  EIRELI</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA MARINHA</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>763000 - DIRET.DO PESSOAL CIVIL DA MARINHA/DF</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>12/03/2021</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>00025/2020</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>00037</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>3.048</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>INST.FED.DE EDUC.,CIE.E TEC.SUL-RIO-GRANDENSE</t>
+        </is>
+      </c>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>158126 - INST.FED.SUL R.GRANDENSE</t>
+        </is>
+      </c>
+      <c r="L49" s="3" t="inlineStr">
+        <is>
+          <t>22/04/2021</t>
+        </is>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>00074/2020</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>00022</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DA AERONAUTICA</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>120635 - GRUPAMENTO DE APOIO DO GUARATINGUETÁ</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>10/09/2020</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>01050/2020</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
+        </is>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>155911 - HOSPITAL UNIVERSITÁRIO GAFFRÉE E GUINLE</t>
+        </is>
+      </c>
+      <c r="L51" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2020</t>
+        </is>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>00055/2020</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>JUSTICA FEDERAL</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>090028 - TRIBUNAL REGIONAL FEDERAL DA 2A. REGIAO</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>27/11/2020</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>00004/2020</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>M L P COSTA</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>ESTADO DE RORAIMA</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr">
+        <is>
+          <t>926196 - PROCURADORIA GERAL DE JUSTIÇA DO ESTADO DE RR</t>
+        </is>
+      </c>
+      <c r="L53" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2020</t>
+        </is>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>00013/2020</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>00009</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>10.490</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>SUPRY OFFICE DISTRIBUIDORA DE MATERIAIS E SERVICOS LTDA</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>160303 - BASE DE ADMINIST. E APOIO DA 1ª REG. MILITAR</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>11/03/2021</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>00014/2019</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>00009</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>53.846</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>R TECH COMERCIO E SERVICOS DISTRIBUIDORA EIRELI</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DO SEGURO SOCIAL</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>512006 - COORDENACAO GERAL DE LICITACOES E CONTRATOS</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>20/11/2020</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="n">
         <v>0.7527354166666667</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>Desvio</t>
         </is>
       </c>
-      <c r="B58" s="8" t="n">
+      <c r="B58" s="4" t="n">
         <v>0.1554185652394826</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>Coeficiente</t>
         </is>
       </c>
-      <c r="B59" s="8" t="n">
+      <c r="B59" s="4" t="n">
         <v>0.2064717054602287</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>Mediana</t>
         </is>
       </c>
-      <c r="B60" s="8" t="n">
+      <c r="B60" s="4" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>Preço</t>
         </is>
       </c>
-      <c r="B61" s="8" t="n">
+      <c r="B61" s="4" t="n">
         <v>0.7527354166666667</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -629,66 +629,66 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>00001/2021</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>00031</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>CAIXA 12,00 UN</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>1.300</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0,109</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>ESTADO DO RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>988815 - PREF.MUNICIPAL DO RIO GRANDE/RS</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>02/06/2021</t>
         </is>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -818,129 +818,129 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>00050/2020</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>1.500</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>DGW BRASIL EIRELI</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>UNIVERSIDADE FEDERAL DO PARANA</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>153079 - UNIVERSIDADE FEDERAL DO PARANA</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>16/07/2020</t>
         </is>
       </c>
-      <c r="M10" s="3" t="n">
-        <v>1</v>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>00011/2020</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>00008</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P3</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>PINHO COMERCIO DE PRODUTOS SANEANTES EIRELI</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>FUNDACAO UNIVERSIDADE DO AMAZONAS</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>154039 - FUNDACAO UNIVERSIDADE DO AMAZONAS/AM</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>11/09/2020</t>
         </is>
       </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1070,192 +1070,192 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>00364</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>120669 - BASE AéREA DE SANTA CRUZ</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
-      <c r="M14" s="3" t="n">
-        <v>1</v>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>00029</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P4</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>4.000</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>FUNDACAO UNIVERSIDADE FED. DA GRANDE DOURADOS</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>154502 - FUNDAÇÃO UNIV. FEDERAL DA GRANDE DOURADOS</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>31/08/2020</t>
         </is>
       </c>
-      <c r="M15" s="3" t="n">
-        <v>1</v>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>00016/2019</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>00004</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,73</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>LADO C COMERCIO E IMPORTACAO HOME OFFICE EIRELI</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>ESTADO DE RONDONIA</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>926002 - DEPARTAMENTO ESTADUAL DE TRÂNSITO</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>21/08/2020</t>
         </is>
       </c>
-      <c r="M16" s="3" t="n">
-        <v>1</v>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1322,192 +1322,192 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>00038</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>5.607</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
         </is>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>120669 - BASE AéREA DE SANTA CRUZ</t>
         </is>
       </c>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
-      <c r="M18" s="3" t="n">
-        <v>1</v>
+      <c r="M18" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>00006/2020</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>00002</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>PRINTSUL COMERCIO ATACADISTA LTDA</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>DEPARTAMENTO DE POLICIA FEDERAL</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>200370 - SUPERINTENDENCIA REG.DEP.POLICIA FEDERAL - SC</t>
         </is>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>11/09/2020</t>
         </is>
       </c>
-      <c r="M19" s="3" t="n">
-        <v>1</v>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>00006/2020</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>00019</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I20" s="3" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>FUNDACAO OSWALDO CRUZ</t>
         </is>
       </c>
-      <c r="K20" s="3" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>254422 - CENTRO DE PESQUISAS GONCALO MUNIZ - FIOCRUZ</t>
         </is>
       </c>
-      <c r="L20" s="3" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>13/08/2020</t>
         </is>
       </c>
-      <c r="M20" s="3" t="n">
-        <v>1</v>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1637,129 +1637,129 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>00060/2020</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>00020</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Dispensa de Licitação</t>
         </is>
       </c>
-      <c r="D23" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="D23" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="I23" s="3" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>BAZAR E PAPELARIA MN LTDA</t>
         </is>
       </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K23" s="3" t="inlineStr">
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>160291 - CENTRO TECNOLOGICO DO EXERCITO/RJ</t>
         </is>
       </c>
-      <c r="L23" s="3" t="inlineStr">
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>13/07/2020</t>
         </is>
       </c>
-      <c r="M23" s="3" t="n">
-        <v>1</v>
+      <c r="M23" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>00104</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>5.790</t>
         </is>
       </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>0,77</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>R G XAVIER GUIMARAES EIRELI</t>
         </is>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>160016 - COMANDO DO COMANDO MILITAR DA AMAZONIA/MEX/AM</t>
         </is>
       </c>
-      <c r="L24" s="3" t="inlineStr">
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>23/06/2021</t>
         </is>
       </c>
-      <c r="M24" s="3" t="n">
-        <v>1</v>
+      <c r="M24" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2078,129 +2078,129 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>00003/2021</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>00037</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>MARY DUDA COMERCIO DE MATERIAL PARA CONSTRUCAO E SERVICOS DE DECORACAO EIRELI</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K30" s="3" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>160066 - COMISSAO REGIONAL DE OBRAS/11-MEX/DF</t>
         </is>
       </c>
-      <c r="L30" s="3" t="inlineStr">
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>02/06/2021</t>
         </is>
       </c>
-      <c r="M30" s="3" t="n">
-        <v>1</v>
+      <c r="M30" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>00013/2020</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>LIVRARIA E PAPELARIA RENASCER LTDA</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>CONSELHO FEDERAL DE ENGENHARIA E AGRONOMIA</t>
         </is>
       </c>
-      <c r="K31" s="3" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>927163 - CONSELHO REG. DE ENG. AGRON. DO EST. SERGIPE</t>
         </is>
       </c>
-      <c r="L31" s="3" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>28/07/2020</t>
         </is>
       </c>
-      <c r="M31" s="3" t="n">
-        <v>1</v>
+      <c r="M31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2330,66 +2330,66 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>00030/2020</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>00016</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>1.400</t>
         </is>
       </c>
-      <c r="H34" s="3" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I34" s="3" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>PLASTIFIK LTDA</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES</t>
         </is>
       </c>
-      <c r="K34" s="3" t="inlineStr">
+      <c r="K34" s="2" t="inlineStr">
         <is>
           <t>155012 - HOSPITAL U. CASSIANO ANTONIO DE MORAIS</t>
         </is>
       </c>
-      <c r="L34" s="3" t="inlineStr">
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>04/09/2020</t>
         </is>
       </c>
-      <c r="M34" s="3" t="n">
-        <v>1</v>
+      <c r="M34" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2519,192 +2519,192 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>00019/2020</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>00021</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>8.000</t>
         </is>
       </c>
-      <c r="H37" s="3" t="inlineStr">
+      <c r="H37" s="2" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I37" s="3" t="inlineStr">
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>SLIM SUPRIMENTOS LTDA</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K37" s="3" t="inlineStr">
+      <c r="K37" s="2" t="inlineStr">
         <is>
           <t>120016 - GRUPAMENTO DE APOIO DE SÃO JOSÉ DOS CAMPOS</t>
         </is>
       </c>
-      <c r="L37" s="3" t="inlineStr">
+      <c r="L37" s="2" t="inlineStr">
         <is>
           <t>31/08/2020</t>
         </is>
       </c>
-      <c r="M37" s="3" t="n">
-        <v>1</v>
+      <c r="M37" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>00024/2020</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>00059</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="H38" s="2" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I38" s="3" t="inlineStr">
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>SCHNEIDER CONSULTORIA EIRELI</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>COMANDO DA MARINHA</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr">
         <is>
           <t>771280 - CENTRO DE MUNICAO DA MARINHA</t>
         </is>
       </c>
-      <c r="L38" s="3" t="inlineStr">
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>11/08/2020</t>
         </is>
       </c>
-      <c r="M38" s="3" t="n">
-        <v>1</v>
+      <c r="M38" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>00006/2019</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>00019</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>3.360</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>0,80</t>
         </is>
       </c>
-      <c r="I39" s="3" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>UNIAGRO RORAIMA EMPREENDIMENTOS EIRELI</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K39" s="3" t="inlineStr">
+      <c r="K39" s="2" t="inlineStr">
         <is>
           <t>160352 - COMANDO DE FRONT.-RR E 7.BAT.DE INF.DE SELVA</t>
         </is>
       </c>
-      <c r="L39" s="3" t="inlineStr">
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>17/07/2020</t>
         </is>
       </c>
-      <c r="M39" s="3" t="n">
-        <v>1</v>
+      <c r="M39" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2771,66 +2771,66 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>00003/2020</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>00055</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr">
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="I41" s="3" t="inlineStr">
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>SUPRY OFFICE DISTRIBUIDORA DE MATERIAIS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K41" s="3" t="inlineStr">
+      <c r="K41" s="2" t="inlineStr">
         <is>
           <t>160317 - ESCOLA DE INSTRUCAO ESPECIALIZADA/RJ</t>
         </is>
       </c>
-      <c r="L41" s="3" t="inlineStr">
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>01/07/2021</t>
         </is>
       </c>
-      <c r="M41" s="3" t="n">
-        <v>1</v>
+      <c r="M41" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3338,66 +3338,66 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>00074/2020</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>00022</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="H50" s="3" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>DISTRIBUIDORA DE SUPRIMENTOS ETICA LTDA</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K50" s="3" t="inlineStr">
+      <c r="K50" s="2" t="inlineStr">
         <is>
           <t>120635 - GRUPAMENTO DE APOIO DO GUARATINGUETÁ</t>
         </is>
       </c>
-      <c r="L50" s="3" t="inlineStr">
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>10/09/2020</t>
         </is>
       </c>
-      <c r="M50" s="3" t="n">
-        <v>1</v>
+      <c r="M50" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3527,66 +3527,66 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>00004/2020</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="I53" s="3" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>M L P COSTA</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
+      <c r="J53" s="2" t="inlineStr">
         <is>
           <t>ESTADO DE RORAIMA</t>
         </is>
       </c>
-      <c r="K53" s="3" t="inlineStr">
+      <c r="K53" s="2" t="inlineStr">
         <is>
           <t>926196 - PROCURADORIA GERAL DE JUSTIÇA DO ESTADO DE RR</t>
         </is>
       </c>
-      <c r="L53" s="3" t="inlineStr">
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>03/09/2020</t>
         </is>
       </c>
-      <c r="M53" s="3" t="n">
-        <v>1</v>
+      <c r="M53" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.7673395833333333</v>
+        <v>0.7908321428571429</v>
       </c>
     </row>
     <row r="58">
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.1194391285178324</v>
+        <v>0.0796416746181221</v>
       </c>
     </row>
     <row r="59">
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.1556535478060278</v>
+        <v>0.1007061679743949</v>
       </c>
     </row>
     <row r="60">
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.7673395833333333</v>
+        <v>0.7908321428571429</v>
       </c>
     </row>
   </sheetData>
@@ -3904,129 +3904,129 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>00003/2020</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>00013</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>279312</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P1</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>350</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,089</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>L.H. DE SOUZA FREITAS</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>389260 - CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>15/07/2020</t>
         </is>
       </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>00001/2021</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>00031</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>CAIXA 12,00 UN</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>1.300</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0,109</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>PASCHOAL COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>ESTADO DO RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>988815 - PREF.MUNICIPAL DO RIO GRANDE/RS</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>02/06/2021</t>
         </is>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.7527354166666667</v>
+        <v>0.7811586956521739</v>
       </c>
     </row>
     <row r="58">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.1554185652394826</v>
+        <v>0.07351177252986825</v>
       </c>
     </row>
     <row r="59">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.2064717054602287</v>
+        <v>0.09410606697336286</v>
       </c>
     </row>
     <row r="60">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.7527354166666667</v>
+        <v>0.7811586956521739</v>
       </c>
     </row>
   </sheetData>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -458,6 +458,11 @@
           <t>MATERIAIS</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃO PADRÃO 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3796,6 +3801,11 @@
           <t>MATERIAIS</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃO PADRÃO 1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -760,66 +760,66 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>00041</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P2</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>4.954</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>0,61</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>AAZ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>160186 - BASE DE ADMINISTRAçãO DO QGEX</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>26/02/2021</t>
         </is>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.7908321428571429</v>
+        <v>0.7845965517241379</v>
       </c>
     </row>
     <row r="58">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.0796416746181221</v>
+        <v>0.08511088768172051</v>
       </c>
     </row>
     <row r="59">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.1007061679743949</v>
+        <v>0.1084772645185487</v>
       </c>
     </row>
     <row r="60">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.7908321428571429</v>
+        <v>0.7845965517241379</v>
       </c>
     </row>
   </sheetData>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>279312</v>
+        <v>279313</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -4103,66 +4103,66 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>00041</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P2</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>4.954</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0,61</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>AAZ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>160186 - BASE DE ADMINISTRAçãO DO QGEX</t>
         </is>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>26/02/2021</t>
         </is>
       </c>
-      <c r="M9" s="3" t="n">
-        <v>1</v>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4229,66 +4229,66 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>00011/2020</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>00008</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P3</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>PINHO COMERCIO DE PRODUTOS SANEANTES EIRELI</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>FUNDACAO UNIVERSIDADE DO AMAZONAS</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>154039 - FUNDACAO UNIVERSIDADE DO AMAZONAS/AM</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>11/09/2020</t>
         </is>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4418,129 +4418,129 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>00364</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>279312</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>LIMP MED COMERCIO DE MATERIAIS MEDICOS ORTOPEDICOS LTDA</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>COMANDO DA AERONAUTICA</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>120669 - BASE AéREA DE SANTA CRUZ</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
-      <c r="M14" s="3" t="n">
-        <v>1</v>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>00020/2020</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>00029</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P4</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>4.000</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>P&amp;M COMERCIAL E DISTRIBUIDORA DE PRODUTOS E EQUIPAMENTOS - EIRELI</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>FUNDACAO UNIVERSIDADE FED. DA GRANDE DOURADOS</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>154502 - FUNDAÇÃO UNIV. FEDERAL DA GRANDE DOURADOS</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>31/08/2020</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
+      <c r="M15" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.7811586956521739</v>
+        <v>0.7826804347826087</v>
       </c>
     </row>
     <row r="58">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.07351177252986825</v>
+        <v>0.07055500492386606</v>
       </c>
     </row>
     <row r="59">
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.09410606697336286</v>
+        <v>0.09014535407859386</v>
       </c>
     </row>
     <row r="60">
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.7811586956521739</v>
+        <v>0.7826804347826087</v>
       </c>
     </row>
   </sheetData>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -3914,66 +3914,66 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>00003/2020</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>00013</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P1</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>350</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>0,089</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>L.H. DE SOUZA FREITAS</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>389260 - CONSELHO FEDERAL DE QUIMICA</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>15/07/2020</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4103,66 +4103,66 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>00015/2020</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>00041</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Pregão</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>279313</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Pregão</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>279313</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>CANETA MARCA-TEXTO, MATERIAL:PLÁSTICO, TIPO PONTA:FLUORESCENTE, COR:AMARELA, P2</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>4.954</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>0,61</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>AAZ COMERCIAL EIRELI</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>COMANDO DO EXERCITO</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>160186 - BASE DE ADMINISTRAçãO DO QGEX</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>26/02/2021</t>
         </is>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.7826804347826087</v>
+        <v>0.76463125</v>
       </c>
     </row>
     <row r="58">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.07055500492386606</v>
+        <v>0.1237176231555364</v>
       </c>
     </row>
     <row r="59">
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.09014535407859386</v>
+        <v>0.1618003752207831</v>
       </c>
     </row>
     <row r="60">
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>0.7826804347826087</v>
+        <v>0.76463125</v>
       </c>
     </row>
   </sheetData>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -604,10 +604,8 @@
           <t>350</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,089</t>
-        </is>
+      <c r="H6" s="2" t="n">
+        <v>0.089</v>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
@@ -667,10 +665,8 @@
           <t>1.300</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,109</t>
-        </is>
+      <c r="H7" s="2" t="n">
+        <v>0.109</v>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
@@ -730,10 +726,8 @@
           <t>1.500</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
+      <c r="H8" s="3" t="n">
+        <v>0.45</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
@@ -793,10 +787,8 @@
           <t>4.954</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
+      <c r="H9" s="3" t="n">
+        <v>0.61</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
@@ -856,10 +848,8 @@
           <t>1.500</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
+      <c r="H10" s="2" t="n">
+        <v>0.65</v>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
@@ -919,10 +909,8 @@
           <t>1.000</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
+      <c r="H11" s="2" t="n">
+        <v>0.68</v>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
@@ -982,10 +970,8 @@
           <t>5.000</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>0,70</t>
-        </is>
+      <c r="H12" s="3" t="n">
+        <v>0.7</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
@@ -1045,10 +1031,8 @@
           <t>2.700</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
+      <c r="H13" s="3" t="n">
+        <v>0.71</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
@@ -1108,10 +1092,8 @@
           <t>623</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
+      <c r="H14" s="2" t="n">
+        <v>0.72</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1171,10 +1153,8 @@
           <t>4.000</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
+      <c r="H15" s="2" t="n">
+        <v>0.72</v>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
@@ -1234,10 +1214,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
+      <c r="H16" s="2" t="n">
+        <v>0.73</v>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1275,8 @@
           <t>500</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
+      <c r="H17" s="3" t="n">
+        <v>0.74</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
@@ -1360,10 +1336,8 @@
           <t>5.607</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H18" s="2" t="n">
+        <v>0.75</v>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
@@ -1423,10 +1397,8 @@
           <t>600</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H19" s="2" t="n">
+        <v>0.75</v>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
@@ -1486,10 +1458,8 @@
           <t>200</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H20" s="2" t="n">
+        <v>0.75</v>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
@@ -1549,10 +1519,8 @@
           <t>300</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H21" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
@@ -1612,10 +1580,8 @@
           <t>800</t>
         </is>
       </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H22" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
@@ -1675,10 +1641,8 @@
           <t>40</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H23" s="2" t="n">
+        <v>0.75</v>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
@@ -1738,10 +1702,8 @@
           <t>5.790</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
+      <c r="H24" s="2" t="n">
+        <v>0.77</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
@@ -1801,10 +1763,8 @@
           <t>10.000</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
+      <c r="H25" s="3" t="n">
+        <v>0.78</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
@@ -1864,10 +1824,8 @@
           <t>1.000</t>
         </is>
       </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H26" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
@@ -1927,10 +1885,8 @@
           <t>2.374</t>
         </is>
       </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H27" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
@@ -1990,10 +1946,8 @@
           <t>1.860</t>
         </is>
       </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H28" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
@@ -2053,10 +2007,8 @@
           <t>6.880</t>
         </is>
       </c>
-      <c r="H29" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H29" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
@@ -2116,10 +2068,8 @@
           <t>700</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H30" s="2" t="n">
+        <v>0.8</v>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
@@ -2179,10 +2129,8 @@
           <t>160</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H31" s="2" t="n">
+        <v>0.8</v>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
@@ -2242,10 +2190,8 @@
           <t>11.800</t>
         </is>
       </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H32" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
@@ -2305,10 +2251,8 @@
           <t>1.800</t>
         </is>
       </c>
-      <c r="H33" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H33" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
@@ -2368,10 +2312,8 @@
           <t>1.400</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H34" s="2" t="n">
+        <v>0.8</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2431,10 +2373,8 @@
           <t>620</t>
         </is>
       </c>
-      <c r="H35" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H35" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
@@ -2494,10 +2434,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H36" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H36" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
@@ -2557,10 +2495,8 @@
           <t>8.000</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H37" s="2" t="n">
+        <v>0.8</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
@@ -2620,10 +2556,8 @@
           <t>800</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H38" s="2" t="n">
+        <v>0.8</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
@@ -2683,10 +2617,8 @@
           <t>3.360</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H39" s="2" t="n">
+        <v>0.8</v>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
@@ -2746,10 +2678,8 @@
           <t>400</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H40" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
@@ -2809,10 +2739,8 @@
           <t>500</t>
         </is>
       </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
+      <c r="H41" s="2" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
@@ -2872,10 +2800,8 @@
           <t>775</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
+      <c r="H42" s="3" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
@@ -2935,10 +2861,8 @@
           <t>4.700</t>
         </is>
       </c>
-      <c r="H43" s="3" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
+      <c r="H43" s="3" t="n">
+        <v>0.83</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
@@ -2998,10 +2922,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H44" s="3" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
+      <c r="H44" s="3" t="n">
+        <v>0.83</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
@@ -3061,10 +2983,8 @@
           <t>1.182</t>
         </is>
       </c>
-      <c r="H45" s="3" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
+      <c r="H45" s="3" t="n">
+        <v>0.83</v>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
@@ -3124,10 +3044,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>0,8333</t>
-        </is>
+      <c r="H46" s="3" t="n">
+        <v>0.8333</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
@@ -3187,10 +3105,8 @@
           <t>184</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H47" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
@@ -3250,10 +3166,8 @@
           <t>1.150</t>
         </is>
       </c>
-      <c r="H48" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H48" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
@@ -3313,10 +3227,8 @@
           <t>3.048</t>
         </is>
       </c>
-      <c r="H49" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H49" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
@@ -3376,10 +3288,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H50" s="2" t="n">
+        <v>0.85</v>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
@@ -3439,10 +3349,8 @@
           <t>600</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H51" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I51" s="3" t="inlineStr">
         <is>
@@ -3502,10 +3410,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H52" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
@@ -3565,10 +3471,8 @@
           <t>700</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H53" s="2" t="n">
+        <v>0.85</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
@@ -3628,10 +3532,8 @@
           <t>10.490</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
+      <c r="H54" s="3" t="n">
+        <v>0.86</v>
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
@@ -3691,10 +3593,8 @@
           <t>53.846</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
+      <c r="H55" s="3" t="n">
+        <v>0.86</v>
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
@@ -3947,10 +3847,8 @@
           <t>350</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>0,089</t>
-        </is>
+      <c r="H6" s="3" t="n">
+        <v>0.089</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
@@ -4010,10 +3908,8 @@
           <t>1.300</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,109</t>
-        </is>
+      <c r="H7" s="2" t="n">
+        <v>0.109</v>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
@@ -4073,10 +3969,8 @@
           <t>1.500</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
+      <c r="H8" s="3" t="n">
+        <v>0.45</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
@@ -4136,10 +4030,8 @@
           <t>4.954</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
+      <c r="H9" s="3" t="n">
+        <v>0.61</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
@@ -4199,10 +4091,8 @@
           <t>1.500</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
+      <c r="H10" s="3" t="n">
+        <v>0.65</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
@@ -4262,10 +4152,8 @@
           <t>1.000</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
+      <c r="H11" s="3" t="n">
+        <v>0.68</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
@@ -4325,10 +4213,8 @@
           <t>5.000</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>0,70</t>
-        </is>
+      <c r="H12" s="3" t="n">
+        <v>0.7</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
@@ -4388,10 +4274,8 @@
           <t>2.700</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
+      <c r="H13" s="3" t="n">
+        <v>0.71</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
@@ -4451,10 +4335,8 @@
           <t>623</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
+      <c r="H14" s="2" t="n">
+        <v>0.72</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -4514,10 +4396,8 @@
           <t>4.000</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
+      <c r="H15" s="3" t="n">
+        <v>0.72</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
@@ -4577,10 +4457,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
+      <c r="H16" s="3" t="n">
+        <v>0.73</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
@@ -4640,10 +4518,8 @@
           <t>500</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
+      <c r="H17" s="3" t="n">
+        <v>0.74</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
@@ -4703,10 +4579,8 @@
           <t>5.607</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H18" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
@@ -4766,10 +4640,8 @@
           <t>600</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H19" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
@@ -4829,10 +4701,8 @@
           <t>200</t>
         </is>
       </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H20" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
@@ -4892,10 +4762,8 @@
           <t>300</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H21" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
@@ -4955,10 +4823,8 @@
           <t>800</t>
         </is>
       </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H22" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
@@ -5018,10 +4884,8 @@
           <t>40</t>
         </is>
       </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="H23" s="3" t="n">
+        <v>0.75</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
@@ -5081,10 +4945,8 @@
           <t>5.790</t>
         </is>
       </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
+      <c r="H24" s="3" t="n">
+        <v>0.77</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
@@ -5144,10 +5006,8 @@
           <t>10.000</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
+      <c r="H25" s="3" t="n">
+        <v>0.78</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
@@ -5207,10 +5067,8 @@
           <t>1.000</t>
         </is>
       </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H26" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
@@ -5270,10 +5128,8 @@
           <t>2.374</t>
         </is>
       </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H27" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
@@ -5333,10 +5189,8 @@
           <t>1.860</t>
         </is>
       </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H28" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
@@ -5396,10 +5250,8 @@
           <t>6.880</t>
         </is>
       </c>
-      <c r="H29" s="3" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+      <c r="H29" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
@@ -5459,10 +5311,8 @@
           <t>700</t>
         </is>
       </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H30" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
@@ -5522,10 +5372,8 @@
           <t>160</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H31" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
@@ -5585,10 +5433,8 @@
           <t>11.800</t>
         </is>
       </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H32" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
@@ -5648,10 +5494,8 @@
           <t>1.800</t>
         </is>
       </c>
-      <c r="H33" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H33" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
@@ -5711,10 +5555,8 @@
           <t>1.400</t>
         </is>
       </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H34" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
@@ -5774,10 +5616,8 @@
           <t>620</t>
         </is>
       </c>
-      <c r="H35" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H35" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
@@ -5837,10 +5677,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H36" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H36" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
@@ -5900,10 +5738,8 @@
           <t>8.000</t>
         </is>
       </c>
-      <c r="H37" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H37" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
@@ -5963,10 +5799,8 @@
           <t>800</t>
         </is>
       </c>
-      <c r="H38" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H38" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
@@ -6026,10 +5860,8 @@
           <t>3.360</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H39" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
@@ -6089,10 +5921,8 @@
           <t>400</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
+      <c r="H40" s="3" t="n">
+        <v>0.8</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
@@ -6152,10 +5982,8 @@
           <t>500</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
+      <c r="H41" s="3" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
@@ -6215,10 +6043,8 @@
           <t>775</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
+      <c r="H42" s="3" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
@@ -6278,10 +6104,8 @@
           <t>4.700</t>
         </is>
       </c>
-      <c r="H43" s="3" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
+      <c r="H43" s="3" t="n">
+        <v>0.83</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
@@ -6341,10 +6165,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H44" s="3" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
+      <c r="H44" s="3" t="n">
+        <v>0.83</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
@@ -6404,10 +6226,8 @@
           <t>1.182</t>
         </is>
       </c>
-      <c r="H45" s="3" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
+      <c r="H45" s="3" t="n">
+        <v>0.83</v>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
@@ -6467,10 +6287,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>0,8333</t>
-        </is>
+      <c r="H46" s="3" t="n">
+        <v>0.8333</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
@@ -6530,10 +6348,8 @@
           <t>184</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H47" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
@@ -6593,10 +6409,8 @@
           <t>1.150</t>
         </is>
       </c>
-      <c r="H48" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H48" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
@@ -6656,10 +6470,8 @@
           <t>3.048</t>
         </is>
       </c>
-      <c r="H49" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H49" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
@@ -6719,10 +6531,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H50" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H50" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I50" s="3" t="inlineStr">
         <is>
@@ -6782,10 +6592,8 @@
           <t>600</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H51" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I51" s="3" t="inlineStr">
         <is>
@@ -6845,10 +6653,8 @@
           <t>1.200</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H52" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
@@ -6908,10 +6714,8 @@
           <t>700</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
+      <c r="H53" s="3" t="n">
+        <v>0.85</v>
       </c>
       <c r="I53" s="3" t="inlineStr">
         <is>
@@ -6971,10 +6775,8 @@
           <t>10.490</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
+      <c r="H54" s="3" t="n">
+        <v>0.86</v>
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
@@ -7034,10 +6836,8 @@
           <t>53.846</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
+      <c r="H55" s="3" t="n">
+        <v>0.86</v>
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.08511088768172051</v>
+        <v>0.08363058540806467</v>
       </c>
     </row>
     <row r="59">
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.1084772645185487</v>
+        <v>0.1065905594719832</v>
       </c>
     </row>
     <row r="60">
@@ -3669,6 +3669,16 @@
       </c>
       <c r="B61" s="4" t="n">
         <v>0.7845965517241379</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Preço BR Supply</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>0.8709021724137931</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6881,7 +6891,7 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>0.1237176231555364</v>
+        <v>0.1224221149620069</v>
       </c>
     </row>
     <row r="59">
@@ -6891,7 +6901,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>0.1618003752207831</v>
+        <v>0.1601060837652226</v>
       </c>
     </row>
     <row r="60">
@@ -6912,6 +6922,16 @@
       </c>
       <c r="B61" s="4" t="n">
         <v>0.76463125</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Preço BR Supply</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>0.8487406875000001</v>
       </c>
     </row>
   </sheetData>
